--- a/capiq_data/in_process_data/IQ251704.xlsx
+++ b/capiq_data/in_process_data/IQ251704.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D381B507-0CE7-4F72-B592-A733C61130A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5388C98-C4E9-48C9-B509-EC327EC1920F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"214ec202-f785-4448-834e-37c39a6ed01c"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"eda30691-5543-4d72-bc24-e5034bde7c6c"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
   </si>
   <si>
     <t>FQ22011</t>
@@ -633,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -727,37 +847,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>732</v>
+        <v>124.607</v>
       </c>
       <c r="D2">
-        <v>20930</v>
+        <v>4940.9989999999998</v>
       </c>
       <c r="E2">
-        <v>10625</v>
+        <v>2327.14</v>
       </c>
       <c r="F2">
-        <v>1234</v>
+        <v>416.30799999999999</v>
       </c>
       <c r="G2">
-        <v>28357</v>
+        <v>6734.174</v>
       </c>
       <c r="H2">
-        <v>42610</v>
+        <v>15097.847</v>
       </c>
       <c r="I2">
-        <v>8141</v>
+        <v>2366.056</v>
       </c>
       <c r="J2">
-        <v>6848</v>
+        <v>3314.9290000000001</v>
       </c>
       <c r="K2">
-        <v>5632</v>
+        <v>1463.097</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -766,81 +886,81 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18063</v>
+        <v>4588.134</v>
       </c>
       <c r="O2">
-        <v>26706</v>
+        <v>8707.9330000000009</v>
       </c>
       <c r="P2">
-        <v>12685</v>
+        <v>4801.674</v>
       </c>
       <c r="Q2">
-        <v>-336</v>
+        <v>18.556000000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>15904</v>
+        <v>6389.9139999999998</v>
       </c>
       <c r="U2">
-        <v>526</v>
+        <v>541.726</v>
       </c>
       <c r="V2">
-        <v>-3212</v>
+        <v>28.277000000000001</v>
       </c>
       <c r="W2">
-        <v>-96</v>
+        <v>-31.670999999999999</v>
       </c>
       <c r="X2">
-        <v>3515</v>
+        <v>137.92400000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-144</v>
+        <v>-59.506</v>
       </c>
       <c r="AA2">
-        <v>732</v>
+        <v>124.607</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>578</v>
+        <v>93.149000000000001</v>
       </c>
       <c r="D3">
-        <v>20077</v>
+        <v>5130.3459999999995</v>
       </c>
       <c r="E3">
-        <v>10428</v>
+        <v>2155.5830000000001</v>
       </c>
       <c r="F3">
-        <v>1160</v>
+        <v>369.65199999999999</v>
       </c>
       <c r="G3">
-        <v>29252</v>
+        <v>6041.69</v>
       </c>
       <c r="H3">
-        <v>43763</v>
+        <v>14154.984</v>
       </c>
       <c r="I3">
-        <v>7703</v>
+        <v>1706.6579999999999</v>
       </c>
       <c r="J3">
-        <v>8350</v>
+        <v>3710.34</v>
       </c>
       <c r="K3">
-        <v>5732</v>
+        <v>986.08199999999999</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -849,81 +969,81 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16863</v>
+        <v>3496.4110000000001</v>
       </c>
       <c r="O3">
-        <v>27083</v>
+        <v>7928.4889999999996</v>
       </c>
       <c r="P3">
-        <v>14258</v>
+        <v>4716.7139999999999</v>
       </c>
       <c r="Q3">
-        <v>332</v>
+        <v>38.856999999999999</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>16680</v>
+        <v>6226.4949999999999</v>
       </c>
       <c r="U3">
-        <v>858</v>
+        <v>580.58299999999997</v>
       </c>
       <c r="V3">
-        <v>-666</v>
+        <v>116.648</v>
       </c>
       <c r="W3">
-        <v>-101</v>
+        <v>-31.687000000000001</v>
       </c>
       <c r="X3">
-        <v>1444</v>
+        <v>-116.69799999999999</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-146</v>
+        <v>111.592</v>
       </c>
       <c r="AA3">
-        <v>578</v>
+        <v>93.149000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>381</v>
+        <v>56.098999999999997</v>
       </c>
       <c r="D4">
-        <v>22870</v>
+        <v>5345.2920000000004</v>
       </c>
       <c r="E4">
-        <v>4808</v>
+        <v>2416.4319999999998</v>
       </c>
       <c r="F4">
-        <v>1098</v>
+        <v>361.93</v>
       </c>
       <c r="G4">
-        <v>27504</v>
+        <v>6150.3010000000004</v>
       </c>
       <c r="H4">
-        <v>42352</v>
+        <v>14339.931</v>
       </c>
       <c r="I4">
-        <v>2581</v>
+        <v>1794.684</v>
       </c>
       <c r="J4">
-        <v>8266</v>
+        <v>3351.067</v>
       </c>
       <c r="K4">
-        <v>1875</v>
+        <v>875.70299999999997</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -932,164 +1052,164 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13218</v>
+        <v>3866.9810000000002</v>
       </c>
       <c r="O4">
-        <v>23514</v>
+        <v>8008.2479999999996</v>
       </c>
       <c r="P4">
-        <v>10319</v>
+        <v>4608.9139999999998</v>
       </c>
       <c r="Q4">
-        <v>-243</v>
+        <v>95.503</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
-        <v>30700</v>
+        <v>22834</v>
       </c>
       <c r="T4">
-        <v>18838</v>
+        <v>6331.683</v>
       </c>
       <c r="U4">
-        <v>615</v>
+        <v>676.08600000000001</v>
       </c>
       <c r="V4">
-        <v>2409</v>
+        <v>340.31299999999999</v>
       </c>
       <c r="W4">
-        <v>-102</v>
+        <v>-31.571000000000002</v>
       </c>
       <c r="X4">
-        <v>-2564</v>
+        <v>-194.089</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>188</v>
+        <v>137.77199999999999</v>
       </c>
       <c r="AA4">
-        <v>381</v>
+        <v>56.098999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>460</v>
+        <v>131.61799999999999</v>
       </c>
       <c r="D5">
-        <v>21902</v>
+        <v>5203.683</v>
       </c>
       <c r="E5">
-        <v>10336</v>
+        <v>2750.636</v>
       </c>
       <c r="F5">
-        <v>1034</v>
+        <v>405.49700000000001</v>
       </c>
       <c r="G5">
-        <v>27279</v>
+        <v>6567.5060000000003</v>
       </c>
       <c r="H5">
-        <v>41448</v>
+        <v>14591.696</v>
       </c>
       <c r="I5">
-        <v>7371</v>
+        <v>2014.8779999999999</v>
       </c>
       <c r="J5">
-        <v>6678</v>
+        <v>3382.6010000000001</v>
       </c>
       <c r="K5">
-        <v>1170</v>
+        <v>659.57500000000005</v>
       </c>
       <c r="L5">
-        <v>-663</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>-85</v>
+        <v>-312.95699999999999</v>
       </c>
       <c r="N5">
-        <v>14479</v>
+        <v>4016.6590000000001</v>
       </c>
       <c r="O5">
-        <v>23039</v>
+        <v>8155.3469999999998</v>
       </c>
       <c r="P5">
-        <v>9497</v>
+        <v>4437.5169999999998</v>
       </c>
       <c r="Q5">
-        <v>705</v>
+        <v>-148.173</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>18409</v>
+        <v>6436.3490000000002</v>
       </c>
       <c r="U5">
-        <v>1320</v>
+        <v>527.91300000000001</v>
       </c>
       <c r="V5">
-        <v>2087</v>
+        <v>208.696</v>
       </c>
       <c r="W5">
-        <v>-107</v>
+        <v>-31.552</v>
       </c>
       <c r="X5">
-        <v>-1133</v>
+        <v>-349.92599999999999</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>300</v>
+        <v>106.69499999999999</v>
       </c>
       <c r="AA5">
-        <v>460</v>
+        <v>131.61799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>150.02500000000001</v>
       </c>
       <c r="D6">
-        <v>23306</v>
+        <v>5463.9960000000001</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2489.2860000000001</v>
       </c>
       <c r="F6">
-        <v>813</v>
+        <v>467.28800000000001</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>7078.7349999999997</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>15194.587</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2450.8829999999998</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>3359.567</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>749.36400000000003</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1098,164 +1218,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>4599.732</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>8733.8209999999999</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>4535.9170000000004</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>350.6</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>6460.7659999999996</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>878.51300000000003</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>655.10799999999995</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>-33.075000000000003</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>-67.230999999999995</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>-132.53399999999999</v>
       </c>
       <c r="AA6">
-        <v>80</v>
+        <v>150.02500000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>399</v>
+        <v>117.184</v>
       </c>
       <c r="D7">
-        <v>21155</v>
+        <v>5189.165</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2630.0520000000001</v>
       </c>
       <c r="F7">
-        <v>1008</v>
+        <v>390.24299999999999</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>7358.9449999999997</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>15318.181</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2422.4569999999999</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>3369.4780000000001</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>691.36300000000006</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-51</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>4638.7489999999998</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>8823.94</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>4502.2809999999999</v>
       </c>
       <c r="Q7">
-        <v>-46</v>
+        <v>32.862000000000002</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>6494.241</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>911.375</v>
       </c>
       <c r="V7">
-        <v>-783</v>
+        <v>335.63400000000001</v>
       </c>
       <c r="W7">
-        <v>-115</v>
+        <v>-32.710999999999999</v>
       </c>
       <c r="X7">
-        <v>900</v>
+        <v>-304.38400000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>201</v>
+        <v>54.618000000000002</v>
       </c>
       <c r="AA7">
-        <v>399</v>
+        <v>117.184</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>284</v>
+        <v>112.26600000000001</v>
       </c>
       <c r="D8">
-        <v>22675</v>
+        <v>6755.05</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2846.4250000000002</v>
       </c>
       <c r="F8">
-        <v>813</v>
+        <v>316.35500000000002</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>7326.5450000000001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>15379.334999999999</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2330.9920000000002</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>3111.2939999999999</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>967.47299999999996</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1264,164 +1384,164 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>4556.0249999999996</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>8624.5139999999992</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>4384.5569999999998</v>
       </c>
       <c r="Q8">
-        <v>473</v>
+        <v>-298.33100000000002</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>24746</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>6754.8209999999999</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>526.11500000000001</v>
       </c>
       <c r="V8">
-        <v>637</v>
+        <v>101.77800000000001</v>
       </c>
       <c r="W8">
-        <v>-116</v>
+        <v>-32.661999999999999</v>
       </c>
       <c r="X8">
-        <v>-139</v>
+        <v>-219.58199999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>257</v>
+        <v>-62.668999999999997</v>
       </c>
       <c r="AA8">
-        <v>284</v>
+        <v>112.26600000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9">
-        <v>182</v>
+        <v>108.075</v>
       </c>
       <c r="D9">
-        <v>21808</v>
+        <v>6943.8950000000004</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>3225.8829999999998</v>
       </c>
       <c r="F9">
-        <v>806</v>
+        <v>419.983</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>8349.6200000000008</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>16888.579000000002</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2839.3939999999998</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>3355.3879999999999</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1639.181</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>-16.478000000000002</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6003.5119999999997</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>10153.769</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>5297.6530000000002</v>
       </c>
       <c r="Q9">
-        <v>-56</v>
+        <v>124.45699999999999</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>6734.81</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1101.6869999999999</v>
       </c>
       <c r="V9">
-        <v>483</v>
+        <v>71.671999999999997</v>
       </c>
       <c r="W9">
-        <v>-115</v>
+        <v>-39.024000000000001</v>
       </c>
       <c r="X9">
-        <v>23</v>
+        <v>562.85299999999995</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-302</v>
+        <v>-45.28</v>
       </c>
       <c r="AA9">
-        <v>182</v>
+        <v>108.075</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>510</v>
+        <v>131.245</v>
       </c>
       <c r="D10">
-        <v>24921</v>
+        <v>7807.3819999999996</v>
       </c>
       <c r="E10">
-        <v>5443</v>
+        <v>3542.2370000000001</v>
       </c>
       <c r="F10">
-        <v>996</v>
+        <v>465.887</v>
       </c>
       <c r="G10">
-        <v>29762</v>
+        <v>9332.8799999999992</v>
       </c>
       <c r="H10">
-        <v>45136</v>
+        <v>17869.477999999999</v>
       </c>
       <c r="I10">
-        <v>4787</v>
+        <v>3231.5880000000002</v>
       </c>
       <c r="J10">
-        <v>6456</v>
+        <v>3848.6860000000001</v>
       </c>
       <c r="K10">
-        <v>2816</v>
+        <v>1662.5060000000001</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1430,164 +1550,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16993</v>
+        <v>6332.4830000000002</v>
       </c>
       <c r="O10">
-        <v>26005</v>
+        <v>11026.050999999999</v>
       </c>
       <c r="P10">
-        <v>9540</v>
+        <v>5817.1419999999998</v>
       </c>
       <c r="Q10">
-        <v>479</v>
+        <v>-21.216999999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>30600</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>19131</v>
+        <v>6843.4269999999997</v>
       </c>
       <c r="U10">
-        <v>1714</v>
+        <v>1063.3240000000001</v>
       </c>
       <c r="V10">
-        <v>1995</v>
+        <v>-265.94900000000001</v>
       </c>
       <c r="W10">
-        <v>-115</v>
+        <v>-38.850999999999999</v>
       </c>
       <c r="X10">
-        <v>-1105</v>
+        <v>431.702</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-596</v>
+        <v>-75.521000000000001</v>
       </c>
       <c r="AA10">
-        <v>510</v>
+        <v>131.245</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11">
-        <v>269</v>
+        <v>116.80500000000001</v>
       </c>
       <c r="D11">
-        <v>21727</v>
+        <v>7908.53</v>
       </c>
       <c r="E11">
-        <v>4150</v>
+        <v>3273.0239999999999</v>
       </c>
       <c r="F11">
-        <v>756</v>
+        <v>411.34800000000001</v>
       </c>
       <c r="G11">
-        <v>27865</v>
+        <v>9034.9639999999999</v>
       </c>
       <c r="H11">
-        <v>43226</v>
+        <v>17554.764999999999</v>
       </c>
       <c r="I11">
-        <v>3474</v>
+        <v>2869.42</v>
       </c>
       <c r="J11">
-        <v>5374</v>
+        <v>3869.1930000000002</v>
       </c>
       <c r="K11">
-        <v>2358</v>
+        <v>1596.72</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-691</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>16142</v>
+        <v>5966.4620000000004</v>
       </c>
       <c r="O11">
-        <v>24250</v>
+        <v>10698.025</v>
       </c>
       <c r="P11">
-        <v>8863</v>
+        <v>5770.0410000000002</v>
       </c>
       <c r="Q11">
-        <v>-266</v>
+        <v>184.03</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>18976</v>
+        <v>6856.74</v>
       </c>
       <c r="U11">
-        <v>1448</v>
+        <v>1250.614</v>
       </c>
       <c r="V11">
-        <v>357</v>
+        <v>538.96</v>
       </c>
       <c r="W11">
-        <v>-125</v>
+        <v>-38.881</v>
       </c>
       <c r="X11">
-        <v>-792</v>
+        <v>-113.539</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>422</v>
+        <v>-47.572000000000003</v>
       </c>
       <c r="AA11">
-        <v>269</v>
+        <v>116.80500000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12">
-        <v>223</v>
+        <v>95.02</v>
       </c>
       <c r="D12">
-        <v>22541</v>
+        <v>8048.2259999999997</v>
       </c>
       <c r="E12">
-        <v>4066</v>
+        <v>3320.3359999999998</v>
       </c>
       <c r="F12">
-        <v>807</v>
+        <v>414.92</v>
       </c>
       <c r="G12">
-        <v>25036</v>
+        <v>8421.857</v>
       </c>
       <c r="H12">
-        <v>40238</v>
+        <v>17182.879000000001</v>
       </c>
       <c r="I12">
-        <v>2971</v>
+        <v>2848.9259999999999</v>
       </c>
       <c r="J12">
-        <v>5366</v>
+        <v>3872.2869999999998</v>
       </c>
       <c r="K12">
-        <v>1016</v>
+        <v>1279.4829999999999</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1596,164 +1716,164 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13123</v>
+        <v>5147.4719999999998</v>
       </c>
       <c r="O12">
-        <v>21225</v>
+        <v>10113.682000000001</v>
       </c>
       <c r="P12">
-        <v>7524</v>
+        <v>5182.6580000000004</v>
       </c>
       <c r="Q12">
-        <v>400</v>
+        <v>-48.426000000000002</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>26197</v>
       </c>
       <c r="T12">
-        <v>19013</v>
+        <v>7069.1970000000001</v>
       </c>
       <c r="U12">
-        <v>1848</v>
+        <v>764.95899999999995</v>
       </c>
       <c r="V12">
-        <v>1991</v>
+        <v>724.49300000000005</v>
       </c>
       <c r="W12">
-        <v>-125</v>
+        <v>-38.808999999999997</v>
       </c>
       <c r="X12">
-        <v>-1480</v>
+        <v>-652.25</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>38</v>
+        <v>20.878</v>
       </c>
       <c r="AA12">
-        <v>223</v>
+        <v>95.02</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13">
-        <v>476</v>
+        <v>150.18100000000001</v>
       </c>
       <c r="D13">
-        <v>21393</v>
+        <v>7967.902</v>
       </c>
       <c r="E13">
-        <v>3934</v>
+        <v>3672.6909999999998</v>
       </c>
       <c r="F13">
-        <v>1156</v>
+        <v>453.75400000000002</v>
       </c>
       <c r="G13">
-        <v>26090</v>
+        <v>9095.2639999999992</v>
       </c>
       <c r="H13">
-        <v>41448</v>
+        <v>17686.388999999999</v>
       </c>
       <c r="I13">
-        <v>2942</v>
+        <v>3095.9229999999998</v>
       </c>
       <c r="J13">
-        <v>5364</v>
+        <v>3855.306</v>
       </c>
       <c r="K13">
-        <v>364</v>
+        <v>1189.769</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>-91.04</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>-15.441000000000001</v>
       </c>
       <c r="N13">
-        <v>13753</v>
+        <v>5481.2560000000003</v>
       </c>
       <c r="O13">
-        <v>21882</v>
+        <v>10469.36</v>
       </c>
       <c r="P13">
-        <v>6884</v>
+        <v>5075.0619999999999</v>
       </c>
       <c r="Q13">
-        <v>1404</v>
+        <v>1.0229999999999999</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>19566</v>
+        <v>7217.0290000000005</v>
       </c>
       <c r="U13">
-        <v>3252</v>
+        <v>765.98199999999997</v>
       </c>
       <c r="V13">
-        <v>2521</v>
+        <v>156.14099999999999</v>
       </c>
       <c r="W13">
-        <v>-126</v>
+        <v>-38.841999999999999</v>
       </c>
       <c r="X13">
-        <v>-885</v>
+        <v>-144.774</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-14</v>
+        <v>99.174999999999997</v>
       </c>
       <c r="AA13">
-        <v>476</v>
+        <v>150.18100000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14">
-        <v>374</v>
+        <v>220.821</v>
       </c>
       <c r="D14">
-        <v>24143</v>
+        <v>9188.5040000000008</v>
       </c>
       <c r="E14">
-        <v>5279</v>
+        <v>4379.6130000000003</v>
       </c>
       <c r="F14">
-        <v>1170</v>
+        <v>604.29399999999998</v>
       </c>
       <c r="G14">
-        <v>28530</v>
+        <v>11027.823</v>
       </c>
       <c r="H14">
-        <v>43752</v>
+        <v>19938.63</v>
       </c>
       <c r="I14">
-        <v>4513</v>
+        <v>3770.9070000000002</v>
       </c>
       <c r="J14">
-        <v>5347</v>
+        <v>3865.1239999999998</v>
       </c>
       <c r="K14">
-        <v>358</v>
+        <v>2102.627</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1762,164 +1882,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15658</v>
+        <v>7242.308</v>
       </c>
       <c r="O14">
-        <v>23558</v>
+        <v>12332.748</v>
       </c>
       <c r="P14">
-        <v>6879</v>
+        <v>5997.9709999999995</v>
       </c>
       <c r="Q14">
-        <v>-131</v>
+        <v>-228.857</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>31100</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>20194</v>
+        <v>7605.8819999999996</v>
       </c>
       <c r="U14">
-        <v>3121</v>
+        <v>537.125</v>
       </c>
       <c r="V14">
-        <v>357</v>
+        <v>-632.24699999999996</v>
       </c>
       <c r="W14">
-        <v>-125</v>
+        <v>-38.957000000000001</v>
       </c>
       <c r="X14">
-        <v>-85</v>
+        <v>867.13499999999999</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-342</v>
+        <v>-339.029</v>
       </c>
       <c r="AA14">
-        <v>374</v>
+        <v>220.821</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15">
-        <v>267</v>
+        <v>226.76900000000001</v>
       </c>
       <c r="D15">
-        <v>20696</v>
+        <v>9309.0190000000002</v>
       </c>
       <c r="E15">
-        <v>4719</v>
+        <v>4942.5550000000003</v>
       </c>
       <c r="F15">
-        <v>675</v>
+        <v>599.01900000000001</v>
       </c>
       <c r="G15">
-        <v>26226</v>
+        <v>12147.725</v>
       </c>
       <c r="H15">
-        <v>41444</v>
+        <v>21112.046999999999</v>
       </c>
       <c r="I15">
-        <v>3653</v>
+        <v>3711.7040000000002</v>
       </c>
       <c r="J15">
-        <v>5353</v>
+        <v>3858.46</v>
       </c>
       <c r="K15">
-        <v>300</v>
+        <v>2798.5120000000002</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-1217</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>13456</v>
+        <v>8035.5640000000003</v>
       </c>
       <c r="O15">
-        <v>21382</v>
+        <v>13228.473</v>
       </c>
       <c r="P15">
-        <v>5678</v>
+        <v>6687.1270000000004</v>
       </c>
       <c r="Q15">
-        <v>-2038</v>
+        <v>267.89</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>20062</v>
+        <v>7883.5739999999996</v>
       </c>
       <c r="U15">
-        <v>1083</v>
+        <v>805.01499999999999</v>
       </c>
       <c r="V15">
-        <v>-358</v>
+        <v>-422.53500000000003</v>
       </c>
       <c r="W15">
-        <v>-158</v>
+        <v>-48.816000000000003</v>
       </c>
       <c r="X15">
-        <v>-1535</v>
+        <v>659.40899999999999</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>37</v>
+        <v>139.23099999999999</v>
       </c>
       <c r="AA15">
-        <v>267</v>
+        <v>226.76900000000001</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16">
-        <v>533</v>
+        <v>-103.06100000000001</v>
       </c>
       <c r="D16">
-        <v>21494</v>
+        <v>9685.9689999999991</v>
       </c>
       <c r="E16">
-        <v>5833</v>
+        <v>4040.759</v>
       </c>
       <c r="F16">
-        <v>1172</v>
+        <v>513.649</v>
       </c>
       <c r="G16">
-        <v>24658</v>
+        <v>10338.995999999999</v>
       </c>
       <c r="H16">
-        <v>39930</v>
+        <v>19368.821</v>
       </c>
       <c r="I16">
-        <v>2904</v>
+        <v>3238.23</v>
       </c>
       <c r="J16">
-        <v>5369</v>
+        <v>3739.875</v>
       </c>
       <c r="K16">
-        <v>233</v>
+        <v>1770.5119999999999</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1928,164 +2048,164 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11891</v>
+        <v>6750.2370000000001</v>
       </c>
       <c r="O16">
-        <v>19711</v>
+        <v>11670.605</v>
       </c>
       <c r="P16">
-        <v>5622</v>
+        <v>5671.1819999999998</v>
       </c>
       <c r="Q16">
-        <v>547</v>
+        <v>-264.80799999999999</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>26317</v>
       </c>
       <c r="T16">
-        <v>20219</v>
+        <v>7698.2160000000003</v>
       </c>
       <c r="U16">
-        <v>1630</v>
+        <v>540.20699999999999</v>
       </c>
       <c r="V16">
-        <v>1341</v>
+        <v>931.98</v>
       </c>
       <c r="W16">
-        <v>-157</v>
+        <v>-47.494</v>
       </c>
       <c r="X16">
-        <v>-682</v>
+        <v>-1065.4259999999999</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>94</v>
+        <v>39.122999999999998</v>
       </c>
       <c r="AA16">
-        <v>533</v>
+        <v>-103.06100000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17">
-        <v>747</v>
+        <v>266.29700000000003</v>
       </c>
       <c r="D17">
-        <v>18117</v>
+        <v>8972.4110000000001</v>
       </c>
       <c r="E17">
-        <v>4305</v>
+        <v>4339.3069999999998</v>
       </c>
       <c r="F17">
-        <v>1470</v>
+        <v>663.43200000000002</v>
       </c>
       <c r="G17">
-        <v>26639</v>
+        <v>9854.3130000000001</v>
       </c>
       <c r="H17">
-        <v>41821</v>
+        <v>18893.383000000002</v>
       </c>
       <c r="I17">
-        <v>3134</v>
+        <v>3590.8530000000001</v>
       </c>
       <c r="J17">
-        <v>5346</v>
+        <v>3690.1469999999999</v>
       </c>
       <c r="K17">
-        <v>177</v>
+        <v>957.79899999999998</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>-817.80399999999997</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>-15.835000000000001</v>
       </c>
       <c r="N17">
-        <v>13751</v>
+        <v>6138.6940000000004</v>
       </c>
       <c r="O17">
-        <v>21560</v>
+        <v>10989.927</v>
       </c>
       <c r="P17">
-        <v>5545</v>
+        <v>4846.6490000000003</v>
       </c>
       <c r="Q17">
-        <v>2909</v>
+        <v>-32.982999999999997</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>20261</v>
+        <v>7903.4560000000001</v>
       </c>
       <c r="U17">
-        <v>4539</v>
+        <v>507.22399999999999</v>
       </c>
       <c r="V17">
-        <v>3441</v>
+        <v>999.21900000000005</v>
       </c>
       <c r="W17">
-        <v>-155</v>
+        <v>-49.029000000000003</v>
       </c>
       <c r="X17">
-        <v>-369</v>
+        <v>-877.20699999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-10</v>
+        <v>-38.933999999999997</v>
       </c>
       <c r="AA17">
-        <v>747</v>
+        <v>266.29700000000003</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18">
-        <v>701</v>
+        <v>313.50900000000001</v>
       </c>
       <c r="D18">
-        <v>20894</v>
+        <v>9063.5259999999998</v>
       </c>
       <c r="E18">
-        <v>4747</v>
+        <v>4199.2839999999997</v>
       </c>
       <c r="F18">
-        <v>1451</v>
+        <v>668.70799999999997</v>
       </c>
       <c r="G18">
-        <v>26028</v>
+        <v>10083.993</v>
       </c>
       <c r="H18">
-        <v>43997</v>
+        <v>19375.223000000002</v>
       </c>
       <c r="I18">
-        <v>4326</v>
+        <v>3889.9389999999999</v>
       </c>
       <c r="J18">
-        <v>5528</v>
+        <v>3695.4319999999998</v>
       </c>
       <c r="K18">
-        <v>108</v>
+        <v>732.678</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2094,164 +2214,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15602</v>
+        <v>5793.6109999999999</v>
       </c>
       <c r="O18">
-        <v>24367</v>
+        <v>10844.527</v>
       </c>
       <c r="P18">
-        <v>5660</v>
+        <v>4507.2749999999996</v>
       </c>
       <c r="Q18">
-        <v>-3440</v>
+        <v>-172.905</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>33900</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>19630</v>
+        <v>8530.6959999999999</v>
       </c>
       <c r="U18">
-        <v>1099</v>
+        <v>334.31900000000002</v>
       </c>
       <c r="V18">
-        <v>538</v>
+        <v>343.66300000000001</v>
       </c>
       <c r="W18">
-        <v>-154</v>
+        <v>-49.146000000000001</v>
       </c>
       <c r="X18">
-        <v>-991</v>
+        <v>-421.92</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-226</v>
+        <v>39.383000000000003</v>
       </c>
       <c r="AA18">
-        <v>701</v>
+        <v>313.50900000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C19">
-        <v>493</v>
+        <v>269.09500000000003</v>
       </c>
       <c r="D19">
-        <v>17506</v>
+        <v>8484.1710000000003</v>
       </c>
       <c r="E19">
-        <v>4280</v>
+        <v>3991.1529999999998</v>
       </c>
       <c r="F19">
-        <v>1102</v>
+        <v>574.85599999999999</v>
       </c>
       <c r="G19">
-        <v>23896</v>
+        <v>10044.596</v>
       </c>
       <c r="H19">
-        <v>41715</v>
+        <v>18981.796999999999</v>
       </c>
       <c r="I19">
-        <v>3142</v>
+        <v>3651.8510000000001</v>
       </c>
       <c r="J19">
-        <v>5575</v>
+        <v>3575.4769999999999</v>
       </c>
       <c r="K19">
-        <v>848</v>
+        <v>270.37400000000002</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>14235</v>
+        <v>5460.8779999999997</v>
       </c>
       <c r="O19">
-        <v>22958</v>
+        <v>10408.691000000001</v>
       </c>
       <c r="P19">
-        <v>6441</v>
+        <v>4028.4459999999999</v>
       </c>
       <c r="Q19">
-        <v>-209</v>
+        <v>327.56400000000002</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>18757</v>
+        <v>8573.1059999999998</v>
       </c>
       <c r="U19">
-        <v>890</v>
+        <v>661.88300000000004</v>
       </c>
       <c r="V19">
-        <v>45</v>
+        <v>700.87</v>
       </c>
       <c r="W19">
-        <v>-177</v>
+        <v>-55.792000000000002</v>
       </c>
       <c r="X19">
-        <v>7</v>
+        <v>-518.279</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>101</v>
+        <v>303.13499999999999</v>
       </c>
       <c r="AA19">
-        <v>493</v>
+        <v>269.09500000000003</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20">
-        <v>386</v>
+        <v>195.48400000000001</v>
       </c>
       <c r="D20">
-        <v>17186</v>
+        <v>9423.7019999999993</v>
       </c>
       <c r="E20">
-        <v>4033</v>
+        <v>4102.2629999999999</v>
       </c>
       <c r="F20">
-        <v>964</v>
+        <v>563.995</v>
       </c>
       <c r="G20">
-        <v>22588</v>
+        <v>9710.7009999999991</v>
       </c>
       <c r="H20">
-        <v>40568</v>
+        <v>18598.105</v>
       </c>
       <c r="I20">
-        <v>3017</v>
+        <v>3399.3519999999999</v>
       </c>
       <c r="J20">
-        <v>5965</v>
+        <v>3530.14</v>
       </c>
       <c r="K20">
-        <v>157</v>
+        <v>425.80799999999999</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2260,164 +2380,164 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12859</v>
+        <v>5366.8639999999996</v>
       </c>
       <c r="O20">
-        <v>22010</v>
+        <v>10164.633</v>
       </c>
       <c r="P20">
-        <v>6923</v>
+        <v>4178.8860000000004</v>
       </c>
       <c r="Q20">
-        <v>-23</v>
+        <v>-139.46299999999999</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>25641</v>
       </c>
       <c r="T20">
-        <v>18558</v>
+        <v>8433.4719999999998</v>
       </c>
       <c r="U20">
-        <v>867</v>
+        <v>522.41999999999996</v>
       </c>
       <c r="V20">
-        <v>362</v>
+        <v>82.427000000000007</v>
       </c>
       <c r="W20">
-        <v>-173</v>
+        <v>-55.457999999999998</v>
       </c>
       <c r="X20">
-        <v>-239</v>
+        <v>-25.052</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>90</v>
+        <v>-17.010000000000002</v>
       </c>
       <c r="AA20">
-        <v>386</v>
+        <v>195.48400000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21">
-        <v>252</v>
+        <v>186.33799999999999</v>
       </c>
       <c r="D21">
-        <v>16565</v>
+        <v>8626.9490000000005</v>
       </c>
       <c r="E21">
-        <v>4335</v>
+        <v>4309.0429999999997</v>
       </c>
       <c r="F21">
-        <v>1089</v>
+        <v>582.71100000000001</v>
       </c>
       <c r="G21">
-        <v>23045</v>
+        <v>10819.07</v>
       </c>
       <c r="H21">
-        <v>40877</v>
+        <v>19852.793000000001</v>
       </c>
       <c r="I21">
-        <v>3072</v>
+        <v>3643.0169999999998</v>
       </c>
       <c r="J21">
-        <v>5829</v>
+        <v>4071.5439999999999</v>
       </c>
       <c r="K21">
-        <v>939</v>
+        <v>480.55099999999999</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>-102.236</v>
       </c>
       <c r="N21">
-        <v>14130</v>
+        <v>5857.8050000000003</v>
       </c>
       <c r="O21">
-        <v>22999</v>
+        <v>11202.344999999999</v>
       </c>
       <c r="P21">
-        <v>6782</v>
+        <v>4721.2299999999996</v>
       </c>
       <c r="Q21">
-        <v>-147</v>
+        <v>632.41700000000003</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>17878</v>
+        <v>8650.4480000000003</v>
       </c>
       <c r="U21">
-        <v>720</v>
+        <v>1154.837</v>
       </c>
       <c r="V21">
-        <v>691</v>
+        <v>405.03</v>
       </c>
       <c r="W21">
-        <v>-170</v>
+        <v>-55.491</v>
       </c>
       <c r="X21">
-        <v>-938</v>
+        <v>504.83800000000002</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-67</v>
+        <v>-72.350999999999999</v>
       </c>
       <c r="AA21">
-        <v>252</v>
+        <v>186.33799999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C22">
-        <v>718</v>
+        <v>367.67700000000002</v>
       </c>
       <c r="D22">
-        <v>16445</v>
+        <v>9298.9850000000006</v>
       </c>
       <c r="E22">
-        <v>3399</v>
+        <v>4225.4979999999996</v>
       </c>
       <c r="F22">
-        <v>865</v>
+        <v>806.46799999999996</v>
       </c>
       <c r="G22">
-        <v>21829</v>
+        <v>11034.045</v>
       </c>
       <c r="H22">
-        <v>40157</v>
+        <v>20098.707999999999</v>
       </c>
       <c r="I22">
-        <v>3474</v>
+        <v>3947.44</v>
       </c>
       <c r="J22">
-        <v>5779</v>
+        <v>4025.1120000000001</v>
       </c>
       <c r="K22">
-        <v>86</v>
+        <v>398.75400000000002</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2426,164 +2546,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13505</v>
+        <v>5981.7330000000002</v>
       </c>
       <c r="O22">
-        <v>22242</v>
+        <v>11233.356</v>
       </c>
       <c r="P22">
-        <v>5877</v>
+        <v>4613.8109999999997</v>
       </c>
       <c r="Q22">
-        <v>179</v>
+        <v>-330.971</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>32300</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>17915</v>
+        <v>8865.3520000000008</v>
       </c>
       <c r="U22">
-        <v>910</v>
+        <v>823.86599999999999</v>
       </c>
       <c r="V22">
-        <v>1372</v>
+        <v>339.16899999999998</v>
       </c>
       <c r="W22">
-        <v>-167</v>
+        <v>-55.53</v>
       </c>
       <c r="X22">
-        <v>-1479</v>
+        <v>-156.405</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-315</v>
+        <v>-314.947</v>
       </c>
       <c r="AA22">
-        <v>718</v>
+        <v>367.67700000000002</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23">
-        <v>230</v>
+        <v>347.79599999999999</v>
       </c>
       <c r="D23">
-        <v>14384</v>
+        <v>9122.8410000000003</v>
       </c>
       <c r="E23">
-        <v>2831</v>
+        <v>4486.5410000000002</v>
       </c>
       <c r="F23">
-        <v>781</v>
+        <v>770.73199999999997</v>
       </c>
       <c r="G23">
-        <v>20970</v>
+        <v>11332.37</v>
       </c>
       <c r="H23">
-        <v>39681</v>
+        <v>20546.481</v>
       </c>
       <c r="I23">
-        <v>2969</v>
+        <v>3916.2849999999999</v>
       </c>
       <c r="J23">
-        <v>5851</v>
+        <v>4027.7869999999998</v>
       </c>
       <c r="K23">
-        <v>783</v>
+        <v>624.12</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>12867</v>
+        <v>6159.085</v>
       </c>
       <c r="O23">
-        <v>21768</v>
+        <v>11371.083000000001</v>
       </c>
       <c r="P23">
-        <v>6646</v>
+        <v>4713.2759999999998</v>
       </c>
       <c r="Q23">
-        <v>-202</v>
+        <v>94.361999999999995</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>17913</v>
+        <v>9175.3979999999992</v>
       </c>
       <c r="U23">
-        <v>706</v>
+        <v>918.22799999999995</v>
       </c>
       <c r="V23">
-        <v>25</v>
+        <v>155.48099999999999</v>
       </c>
       <c r="W23">
-        <v>-177</v>
+        <v>-65.412000000000006</v>
       </c>
       <c r="X23">
-        <v>221</v>
+        <v>32.002000000000002</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-199</v>
+        <v>181.83600000000001</v>
       </c>
       <c r="AA23">
-        <v>230</v>
+        <v>347.79599999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24">
-        <v>284</v>
+        <v>410.18900000000002</v>
       </c>
       <c r="D24">
-        <v>15629</v>
+        <v>9547.2250000000004</v>
       </c>
       <c r="E24">
-        <v>3242</v>
+        <v>4471</v>
       </c>
       <c r="F24">
-        <v>737</v>
+        <v>877.08900000000006</v>
       </c>
       <c r="G24">
-        <v>20867</v>
+        <v>11826</v>
       </c>
       <c r="H24">
-        <v>40098</v>
+        <v>21269</v>
       </c>
       <c r="I24">
-        <v>2770</v>
+        <v>4014</v>
       </c>
       <c r="J24">
-        <v>5561</v>
+        <v>4050</v>
       </c>
       <c r="K24">
-        <v>1554</v>
+        <v>550</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2592,164 +2712,164 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13778</v>
+        <v>6165</v>
       </c>
       <c r="O24">
-        <v>22388</v>
+        <v>11462</v>
       </c>
       <c r="P24">
-        <v>7386</v>
+        <v>4680</v>
       </c>
       <c r="Q24">
-        <v>-377</v>
+        <v>195.19200000000001</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>26821</v>
       </c>
       <c r="T24">
-        <v>17710</v>
+        <v>9807</v>
       </c>
       <c r="U24">
-        <v>334</v>
+        <v>1113</v>
       </c>
       <c r="V24">
-        <v>-394</v>
+        <v>476.32</v>
       </c>
       <c r="W24">
-        <v>-176</v>
+        <v>-65.566999999999993</v>
       </c>
       <c r="X24">
-        <v>382</v>
+        <v>-96.435000000000002</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>262</v>
+        <v>33.462000000000003</v>
       </c>
       <c r="AA24">
-        <v>284</v>
+        <v>410.18900000000002</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25">
-        <v>341</v>
+        <v>403</v>
       </c>
       <c r="D25">
-        <v>15832</v>
+        <v>9447</v>
       </c>
       <c r="E25">
-        <v>3418</v>
+        <v>4774.5479999999998</v>
       </c>
       <c r="F25">
-        <v>1090</v>
+        <v>866</v>
       </c>
       <c r="G25">
-        <v>20543</v>
+        <v>12379.207</v>
       </c>
       <c r="H25">
-        <v>39853</v>
+        <v>21972.02</v>
       </c>
       <c r="I25">
-        <v>2927</v>
+        <v>4115.4579999999996</v>
       </c>
       <c r="J25">
-        <v>6594</v>
+        <v>4012.6759999999999</v>
       </c>
       <c r="K25">
-        <v>207</v>
+        <v>714.95600000000002</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="N25">
-        <v>12737</v>
+        <v>6416.6869999999999</v>
       </c>
       <c r="O25">
-        <v>22257</v>
+        <v>11682.275</v>
       </c>
       <c r="P25">
-        <v>7073</v>
+        <v>4814.9269999999997</v>
       </c>
       <c r="Q25">
-        <v>510</v>
+        <v>-155</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>17596</v>
+        <v>10289.745000000001</v>
       </c>
       <c r="U25">
-        <v>701</v>
+        <v>958.49099999999999</v>
       </c>
       <c r="V25">
-        <v>1665</v>
+        <v>77</v>
       </c>
       <c r="W25">
-        <v>-175</v>
+        <v>-66</v>
       </c>
       <c r="X25">
-        <v>-737</v>
+        <v>84</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-656</v>
+        <v>-65</v>
       </c>
       <c r="AA25">
-        <v>341</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C26">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="D26">
-        <v>16501</v>
+        <v>10976</v>
       </c>
       <c r="E26">
-        <v>2966</v>
+        <v>5978.8879999999999</v>
       </c>
       <c r="F26">
-        <v>1011</v>
+        <v>910</v>
       </c>
       <c r="G26">
-        <v>21045</v>
+        <v>15192.9</v>
       </c>
       <c r="H26">
-        <v>39769</v>
+        <v>25045.614000000001</v>
       </c>
       <c r="I26">
-        <v>3606</v>
+        <v>5175.348</v>
       </c>
       <c r="J26">
-        <v>6504</v>
+        <v>4011.194</v>
       </c>
       <c r="K26">
-        <v>154</v>
+        <v>1746.2449999999999</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2758,164 +2878,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>13173</v>
+        <v>8982.5740000000005</v>
       </c>
       <c r="O26">
-        <v>22564</v>
+        <v>14272.93</v>
       </c>
       <c r="P26">
-        <v>6931</v>
+        <v>5823.7939999999999</v>
       </c>
       <c r="Q26">
-        <v>-166</v>
+        <v>-135</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>31800</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>17205</v>
+        <v>10772.683999999999</v>
       </c>
       <c r="U26">
-        <v>619</v>
+        <v>822.78</v>
       </c>
       <c r="V26">
-        <v>259</v>
+        <v>-373</v>
       </c>
       <c r="W26">
-        <v>-173</v>
+        <v>-65</v>
       </c>
       <c r="X26">
-        <v>-445</v>
+        <v>741</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>189</v>
+        <v>-156</v>
       </c>
       <c r="AA26">
-        <v>424</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C27">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="D27">
-        <v>14988</v>
+        <v>11381</v>
       </c>
       <c r="E27">
-        <v>2529</v>
+        <v>5805.0870000000004</v>
       </c>
       <c r="F27">
-        <v>872</v>
+        <v>746</v>
       </c>
       <c r="G27">
-        <v>20486</v>
+        <v>15243.358</v>
       </c>
       <c r="H27">
-        <v>39630</v>
+        <v>25351.416000000001</v>
       </c>
       <c r="I27">
-        <v>3415</v>
+        <v>4872.3220000000001</v>
       </c>
       <c r="J27">
-        <v>5956</v>
+        <v>5157.2709999999997</v>
       </c>
       <c r="K27">
-        <v>420</v>
+        <v>1142.7650000000001</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>13602</v>
+        <v>8301.5560000000005</v>
       </c>
       <c r="O27">
-        <v>22475</v>
+        <v>14672.066999999999</v>
       </c>
       <c r="P27">
-        <v>7207</v>
+        <v>6371.9120000000003</v>
       </c>
       <c r="Q27">
-        <v>379</v>
+        <v>74</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>17155</v>
+        <v>10679.349</v>
       </c>
       <c r="U27">
-        <v>476</v>
+        <v>896.52599999999995</v>
       </c>
       <c r="V27">
-        <v>-1489</v>
+        <v>262</v>
       </c>
       <c r="W27">
-        <v>-183</v>
+        <v>-76</v>
       </c>
       <c r="X27">
-        <v>-180</v>
+        <v>-57</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-113</v>
+        <v>174</v>
       </c>
       <c r="AA27">
-        <v>339</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C28">
-        <v>276</v>
+        <v>955</v>
       </c>
       <c r="D28">
-        <v>14943</v>
+        <v>12214</v>
       </c>
       <c r="E28">
-        <v>2500</v>
+        <v>6404</v>
       </c>
       <c r="F28">
-        <v>892</v>
+        <v>739</v>
       </c>
       <c r="G28">
-        <v>18201</v>
+        <v>15122</v>
       </c>
       <c r="H28">
-        <v>37817</v>
+        <v>25118</v>
       </c>
       <c r="I28">
-        <v>2926</v>
+        <v>4919</v>
       </c>
       <c r="J28">
-        <v>6056</v>
+        <v>4752</v>
       </c>
       <c r="K28">
-        <v>353</v>
+        <v>468</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2924,164 +3044,164 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>11421</v>
+        <v>7868</v>
       </c>
       <c r="O28">
-        <v>20372</v>
+        <v>13865</v>
       </c>
       <c r="P28">
-        <v>6980</v>
+        <v>5285</v>
       </c>
       <c r="Q28">
-        <v>-50</v>
+        <v>-234</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>27300</v>
       </c>
       <c r="T28">
-        <v>17445</v>
+        <v>11253</v>
       </c>
       <c r="U28">
-        <v>433</v>
+        <v>663</v>
       </c>
       <c r="V28">
-        <v>-591</v>
+        <v>337</v>
       </c>
       <c r="W28">
-        <v>-181</v>
+        <v>-74</v>
       </c>
       <c r="X28">
-        <v>-759</v>
+        <v>-1166</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>33</v>
+        <v>566</v>
       </c>
       <c r="AA28">
-        <v>276</v>
+        <v>955</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C29">
-        <v>192</v>
+        <v>441</v>
       </c>
       <c r="D29">
-        <v>14827</v>
+        <v>12828</v>
       </c>
       <c r="E29">
-        <v>2784</v>
+        <v>8428</v>
       </c>
       <c r="F29">
-        <v>812</v>
+        <v>930</v>
       </c>
       <c r="G29">
-        <v>19140</v>
+        <v>19018</v>
       </c>
       <c r="H29">
-        <v>38969</v>
+        <v>29392</v>
       </c>
       <c r="I29">
-        <v>3449</v>
+        <v>5512</v>
       </c>
       <c r="J29">
-        <v>6595</v>
+        <v>4733</v>
       </c>
       <c r="K29">
-        <v>728</v>
+        <v>2523</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>-39</v>
       </c>
       <c r="N29">
-        <v>11873</v>
+        <v>11526</v>
       </c>
       <c r="O29">
-        <v>21339</v>
+        <v>17572</v>
       </c>
       <c r="P29">
-        <v>7336</v>
+        <v>7323</v>
       </c>
       <c r="Q29">
-        <v>-96</v>
+        <v>458</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>17630</v>
+        <v>11820</v>
       </c>
       <c r="U29">
-        <v>518</v>
+        <v>1121</v>
       </c>
       <c r="V29">
-        <v>-1169</v>
+        <v>-1210</v>
       </c>
       <c r="W29">
-        <v>-180</v>
+        <v>-74</v>
       </c>
       <c r="X29">
-        <v>-50</v>
+        <v>1892</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-128</v>
+        <v>120</v>
       </c>
       <c r="AA29">
-        <v>192</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C30">
-        <v>788</v>
+        <v>472</v>
       </c>
       <c r="D30">
-        <v>16070</v>
+        <v>16496</v>
       </c>
       <c r="E30">
-        <v>2731</v>
+        <v>10026</v>
       </c>
       <c r="F30">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="G30">
-        <v>19925</v>
+        <v>22660</v>
       </c>
       <c r="H30">
-        <v>39963</v>
+        <v>33490</v>
       </c>
       <c r="I30">
-        <v>3894</v>
+        <v>6156</v>
       </c>
       <c r="J30">
-        <v>6623</v>
+        <v>5233</v>
       </c>
       <c r="K30">
-        <v>857</v>
+        <v>4536</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3090,164 +3210,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>12570</v>
+        <v>14561</v>
       </c>
       <c r="O30">
-        <v>21588</v>
+        <v>21166</v>
       </c>
       <c r="P30">
-        <v>7493</v>
+        <v>9828</v>
       </c>
       <c r="Q30">
-        <v>64</v>
+        <v>-16</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>31300</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>18375</v>
+        <v>12324</v>
       </c>
       <c r="U30">
-        <v>804</v>
+        <v>1105</v>
       </c>
       <c r="V30">
-        <v>-2717</v>
+        <v>-1716</v>
       </c>
       <c r="W30">
-        <v>-186</v>
+        <v>-74</v>
       </c>
       <c r="X30">
-        <v>-39</v>
+        <v>2422</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>375</v>
+        <v>-164</v>
       </c>
       <c r="AA30">
-        <v>788</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C31">
-        <v>393</v>
+        <v>517</v>
       </c>
       <c r="D31">
-        <v>15526</v>
+        <v>18708</v>
       </c>
       <c r="E31">
-        <v>3042</v>
+        <v>10447</v>
       </c>
       <c r="F31">
-        <v>889</v>
+        <v>1157</v>
       </c>
       <c r="G31">
-        <v>20906</v>
+        <v>25229</v>
       </c>
       <c r="H31">
-        <v>41100</v>
+        <v>36513</v>
       </c>
       <c r="I31">
-        <v>3340</v>
+        <v>6936</v>
       </c>
       <c r="J31">
-        <v>6657</v>
+        <v>6026</v>
       </c>
       <c r="K31">
-        <v>2330</v>
+        <v>4916</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>13285</v>
+        <v>15885</v>
       </c>
       <c r="O31">
-        <v>22304</v>
+        <v>23351</v>
       </c>
       <c r="P31">
-        <v>9000</v>
+        <v>10996</v>
       </c>
       <c r="Q31">
-        <v>-117</v>
+        <v>101</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>18796</v>
+        <v>13162</v>
       </c>
       <c r="U31">
-        <v>797</v>
+        <v>1206</v>
       </c>
       <c r="V31">
-        <v>-3574</v>
+        <v>-241</v>
       </c>
       <c r="W31">
-        <v>-190</v>
+        <v>-84</v>
       </c>
       <c r="X31">
-        <v>1277</v>
+        <v>1024</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>-281</v>
       </c>
       <c r="AA31">
-        <v>393</v>
+        <v>517</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C32">
-        <v>566</v>
+        <v>372</v>
       </c>
       <c r="D32">
-        <v>17068</v>
+        <v>21784</v>
       </c>
       <c r="E32">
-        <v>2645</v>
+        <v>11483</v>
       </c>
       <c r="F32">
-        <v>1181</v>
+        <v>839</v>
       </c>
       <c r="G32">
-        <v>18647</v>
+        <v>25455</v>
       </c>
       <c r="H32">
-        <v>38755</v>
+        <v>37056</v>
       </c>
       <c r="I32">
-        <v>2609</v>
+        <v>6544</v>
       </c>
       <c r="J32">
-        <v>5981</v>
+        <v>7690</v>
       </c>
       <c r="K32">
-        <v>1047</v>
+        <v>3123</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3256,164 +3376,164 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>11718</v>
+        <v>14621</v>
       </c>
       <c r="O32">
-        <v>19990</v>
+        <v>23566</v>
       </c>
       <c r="P32">
-        <v>7623</v>
+        <v>11045</v>
       </c>
       <c r="Q32">
-        <v>310</v>
+        <v>-396</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>27600</v>
       </c>
       <c r="T32">
-        <v>18765</v>
+        <v>13490</v>
       </c>
       <c r="U32">
-        <v>851</v>
+        <v>810</v>
       </c>
       <c r="V32">
-        <v>395</v>
+        <v>-37</v>
       </c>
       <c r="W32">
-        <v>-189</v>
+        <v>-84</v>
       </c>
       <c r="X32">
-        <v>-1453</v>
+        <v>-92</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-134</v>
+        <v>164</v>
       </c>
       <c r="AA32">
-        <v>566</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C33">
-        <v>536</v>
+        <v>1045</v>
       </c>
       <c r="D33">
-        <v>15800</v>
+        <v>21160</v>
       </c>
       <c r="E33">
-        <v>2864</v>
+        <v>8884</v>
       </c>
       <c r="F33">
-        <v>1058</v>
+        <v>1867</v>
       </c>
       <c r="G33">
-        <v>19465</v>
+        <v>23074</v>
       </c>
       <c r="H33">
-        <v>39664</v>
+        <v>34707</v>
       </c>
       <c r="I33">
-        <v>3082</v>
+        <v>7189</v>
       </c>
       <c r="J33">
-        <v>6730</v>
+        <v>7754</v>
       </c>
       <c r="K33">
-        <v>532</v>
+        <v>707</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>-2585</v>
       </c>
       <c r="N33">
-        <v>11648</v>
+        <v>12101</v>
       </c>
       <c r="O33">
-        <v>20618</v>
+        <v>21174</v>
       </c>
       <c r="P33">
-        <v>7852</v>
+        <v>8505</v>
       </c>
       <c r="Q33">
-        <v>598</v>
+        <v>1722</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>19046</v>
+        <v>13533</v>
       </c>
       <c r="U33">
-        <v>915</v>
+        <v>2532</v>
       </c>
       <c r="V33">
-        <v>-501</v>
+        <v>4680</v>
       </c>
       <c r="W33">
-        <v>-189</v>
+        <v>-84</v>
       </c>
       <c r="X33">
-        <v>72</v>
+        <v>-2659</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>7</v>
+        <v>-67</v>
       </c>
       <c r="AA33">
-        <v>536</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C34">
-        <v>315</v>
+        <v>578</v>
       </c>
       <c r="D34">
-        <v>15947</v>
+        <v>16673</v>
       </c>
       <c r="E34">
-        <v>3062</v>
+        <v>8673</v>
       </c>
       <c r="F34">
-        <v>1053</v>
+        <v>1212</v>
       </c>
       <c r="G34">
-        <v>20588</v>
+        <v>22104</v>
       </c>
       <c r="H34">
-        <v>40833</v>
+        <v>33901</v>
       </c>
       <c r="I34">
-        <v>3545</v>
+        <v>6762</v>
       </c>
       <c r="J34">
-        <v>7698</v>
+        <v>7751</v>
       </c>
       <c r="K34">
-        <v>108</v>
+        <v>568</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3422,164 +3542,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>11776</v>
+        <v>11101</v>
       </c>
       <c r="O34">
-        <v>21788</v>
+        <v>20207</v>
       </c>
       <c r="P34">
-        <v>8408</v>
+        <v>8363</v>
       </c>
       <c r="Q34">
-        <v>1194</v>
+        <v>-284</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>31600</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>19045</v>
+        <v>13694</v>
       </c>
       <c r="U34">
-        <v>1997</v>
+        <v>2248</v>
       </c>
       <c r="V34">
-        <v>-1104</v>
+        <v>1185</v>
       </c>
       <c r="W34">
-        <v>-190</v>
+        <v>-83</v>
       </c>
       <c r="X34">
-        <v>291</v>
+        <v>-211</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-17</v>
+        <v>-670</v>
       </c>
       <c r="AA34">
-        <v>315</v>
+        <v>578</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C35">
-        <v>233</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>15304</v>
+        <v>14842</v>
       </c>
       <c r="E35">
-        <v>3631</v>
+        <v>7236</v>
       </c>
       <c r="F35">
-        <v>928</v>
+        <v>649</v>
       </c>
       <c r="G35">
-        <v>20262</v>
+        <v>20314</v>
       </c>
       <c r="H35">
-        <v>43151</v>
+        <v>31975</v>
       </c>
       <c r="I35">
-        <v>3538</v>
+        <v>6450</v>
       </c>
       <c r="J35">
-        <v>7675</v>
+        <v>7751</v>
       </c>
       <c r="K35">
-        <v>1595</v>
+        <v>255</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>13361</v>
+        <v>9411</v>
       </c>
       <c r="O35">
-        <v>24192</v>
+        <v>18548</v>
       </c>
       <c r="P35">
-        <v>10701</v>
+        <v>8049</v>
       </c>
       <c r="Q35">
-        <v>-1241</v>
+        <v>-60</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>18959</v>
+        <v>13427</v>
       </c>
       <c r="U35">
-        <v>926</v>
+        <v>2188</v>
       </c>
       <c r="V35">
-        <v>-2035</v>
+        <v>-14</v>
       </c>
       <c r="W35">
-        <v>-198</v>
+        <v>-90</v>
       </c>
       <c r="X35">
-        <v>1065</v>
+        <v>-381</v>
       </c>
       <c r="Y35">
-        <v>622</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>41</v>
+        <v>716</v>
       </c>
       <c r="AA35">
-        <v>233</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C36">
-        <v>235</v>
+        <v>58</v>
       </c>
       <c r="D36">
-        <v>16297</v>
+        <v>16532</v>
       </c>
       <c r="E36">
-        <v>3473</v>
+        <v>7311</v>
       </c>
       <c r="F36">
-        <v>972</v>
+        <v>374</v>
       </c>
       <c r="G36">
-        <v>19548</v>
+        <v>19408</v>
       </c>
       <c r="H36">
-        <v>42616</v>
+        <v>31582</v>
       </c>
       <c r="I36">
-        <v>3067</v>
+        <v>5786</v>
       </c>
       <c r="J36">
-        <v>7701</v>
+        <v>7592</v>
       </c>
       <c r="K36">
-        <v>1699</v>
+        <v>356</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3588,164 +3708,164 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>12602</v>
+        <v>8885</v>
       </c>
       <c r="O36">
-        <v>23584</v>
+        <v>17929</v>
       </c>
       <c r="P36">
-        <v>10315</v>
+        <v>7996</v>
       </c>
       <c r="Q36">
-        <v>147</v>
+        <v>-1133</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>28200</v>
       </c>
       <c r="T36">
-        <v>19032</v>
+        <v>13653</v>
       </c>
       <c r="U36">
-        <v>849</v>
+        <v>1055</v>
       </c>
       <c r="V36">
-        <v>-678</v>
+        <v>-510</v>
       </c>
       <c r="W36">
-        <v>-197</v>
+        <v>-90</v>
       </c>
       <c r="X36">
-        <v>-792</v>
+        <v>26</v>
       </c>
       <c r="Y36">
-        <v>668</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>14</v>
+        <v>-73</v>
       </c>
       <c r="AA36">
-        <v>235</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C37">
-        <v>407</v>
+        <v>496</v>
       </c>
       <c r="D37">
-        <v>16726</v>
+        <v>14921</v>
       </c>
       <c r="E37">
-        <v>3314</v>
+        <v>6600</v>
       </c>
       <c r="F37">
-        <v>1078</v>
+        <v>973</v>
       </c>
       <c r="G37">
-        <v>19178</v>
+        <v>19155</v>
       </c>
       <c r="H37">
-        <v>41804</v>
+        <v>31861</v>
       </c>
       <c r="I37">
-        <v>2973</v>
+        <v>5812</v>
       </c>
       <c r="J37">
-        <v>7631</v>
+        <v>7573</v>
       </c>
       <c r="K37">
-        <v>1242</v>
+        <v>254</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>-141</v>
       </c>
       <c r="N37">
-        <v>12020</v>
+        <v>8547</v>
       </c>
       <c r="O37">
-        <v>22856</v>
+        <v>17618</v>
       </c>
       <c r="P37">
-        <v>9762</v>
+        <v>7877</v>
       </c>
       <c r="Q37">
-        <v>276</v>
+        <v>1335</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>18948</v>
+        <v>14243</v>
       </c>
       <c r="U37">
-        <v>932</v>
+        <v>2390</v>
       </c>
       <c r="V37">
-        <v>-926</v>
+        <v>1992</v>
       </c>
       <c r="W37">
-        <v>-197</v>
+        <v>-90</v>
       </c>
       <c r="X37">
-        <v>-703</v>
+        <v>-228</v>
       </c>
       <c r="Y37">
-        <v>645</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-26</v>
+        <v>57</v>
       </c>
       <c r="AA37">
-        <v>407</v>
+        <v>496</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C38">
-        <v>504</v>
+        <v>567</v>
       </c>
       <c r="D38">
-        <v>16329</v>
+        <v>15913</v>
       </c>
       <c r="E38">
-        <v>3727</v>
+        <v>7075</v>
       </c>
       <c r="F38">
-        <v>1169</v>
+        <v>1053</v>
       </c>
       <c r="G38">
-        <v>21347</v>
+        <v>20388</v>
       </c>
       <c r="H38">
-        <v>43997</v>
+        <v>33529</v>
       </c>
       <c r="I38">
-        <v>3746</v>
+        <v>6832</v>
       </c>
       <c r="J38">
-        <v>7672</v>
+        <v>7398</v>
       </c>
       <c r="K38">
-        <v>1202</v>
+        <v>221</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3754,164 +3874,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>13734</v>
+        <v>9600</v>
       </c>
       <c r="O38">
-        <v>24714</v>
+        <v>18734</v>
       </c>
       <c r="P38">
-        <v>9920</v>
+        <v>7865</v>
       </c>
       <c r="Q38">
-        <v>-35</v>
+        <v>-1073</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>38100</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>19283</v>
+        <v>14795</v>
       </c>
       <c r="U38">
-        <v>852</v>
+        <v>1317</v>
       </c>
       <c r="V38">
-        <v>-1813</v>
+        <v>-612</v>
       </c>
       <c r="W38">
-        <v>-197</v>
+        <v>-90</v>
       </c>
       <c r="X38">
-        <v>-230</v>
+        <v>-110</v>
       </c>
       <c r="Y38">
-        <v>781</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="AA38">
-        <v>504</v>
+        <v>567</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C39">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="D39">
-        <v>14970</v>
+        <v>15145</v>
       </c>
       <c r="E39">
-        <v>3930</v>
+        <v>5876</v>
       </c>
       <c r="F39">
-        <v>951</v>
+        <v>891</v>
       </c>
       <c r="G39">
-        <v>26146</v>
+        <v>19200</v>
       </c>
       <c r="H39">
-        <v>48395</v>
+        <v>32326</v>
       </c>
       <c r="I39">
-        <v>3440</v>
+        <v>6406</v>
       </c>
       <c r="J39">
-        <v>8613</v>
+        <v>6910</v>
       </c>
       <c r="K39">
-        <v>3382</v>
+        <v>266</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>17317</v>
+        <v>9236</v>
       </c>
       <c r="O39">
-        <v>29348</v>
+        <v>17557</v>
       </c>
       <c r="P39">
-        <v>13490</v>
+        <v>7421</v>
       </c>
       <c r="Q39">
-        <v>4540</v>
+        <v>342</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>19047</v>
+        <v>14769</v>
       </c>
       <c r="U39">
-        <v>4734</v>
+        <v>1659</v>
       </c>
       <c r="V39">
-        <v>-655</v>
+        <v>1395</v>
       </c>
       <c r="W39">
-        <v>-203</v>
+        <v>-96</v>
       </c>
       <c r="X39">
-        <v>3342</v>
+        <v>-620</v>
       </c>
       <c r="Y39">
-        <v>769</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>2</v>
+        <v>-124</v>
       </c>
       <c r="AA39">
-        <v>391</v>
+        <v>421</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C40">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="D40">
-        <v>16281</v>
+        <v>15703</v>
       </c>
       <c r="E40">
-        <v>4818</v>
+        <v>6122</v>
       </c>
       <c r="F40">
-        <v>1108</v>
+        <v>935</v>
       </c>
       <c r="G40">
-        <v>22011</v>
+        <v>18394</v>
       </c>
       <c r="H40">
-        <v>44341</v>
+        <v>31808</v>
       </c>
       <c r="I40">
-        <v>2897</v>
+        <v>5538</v>
       </c>
       <c r="J40">
-        <v>8632</v>
+        <v>6830</v>
       </c>
       <c r="K40">
-        <v>531</v>
+        <v>374</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3920,211 +4040,3531 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>12809</v>
+        <v>8833</v>
       </c>
       <c r="O40">
-        <v>24945</v>
+        <v>17177</v>
       </c>
       <c r="P40">
-        <v>10304</v>
+        <v>7548</v>
       </c>
       <c r="Q40">
-        <v>-3031</v>
+        <v>-613</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>29300</v>
       </c>
       <c r="T40">
-        <v>19396</v>
+        <v>14631</v>
       </c>
       <c r="U40">
-        <v>1203</v>
+        <v>1046</v>
       </c>
       <c r="V40">
-        <v>219</v>
+        <v>-91</v>
       </c>
       <c r="W40">
-        <v>-202</v>
+        <v>-96</v>
       </c>
       <c r="X40">
-        <v>-3570</v>
+        <v>-70</v>
       </c>
       <c r="Y40">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-10</v>
+        <v>-153</v>
       </c>
       <c r="AA40">
-        <v>469</v>
+        <v>446</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C41">
-        <v>225</v>
+        <v>345</v>
       </c>
       <c r="D41">
-        <v>15126</v>
+        <v>16799</v>
       </c>
       <c r="E41">
-        <v>3776</v>
+        <v>8174</v>
       </c>
       <c r="F41">
-        <v>1042</v>
+        <v>808</v>
       </c>
       <c r="G41">
-        <v>22766</v>
+        <v>22086</v>
       </c>
       <c r="H41">
-        <v>44795</v>
+        <v>36036</v>
       </c>
       <c r="I41">
-        <v>3347</v>
+        <v>7025</v>
       </c>
       <c r="J41">
-        <v>7922</v>
+        <v>6834</v>
       </c>
       <c r="K41">
-        <v>209</v>
+        <v>1721</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>-34</v>
       </c>
       <c r="N41">
-        <v>13907</v>
+        <v>12235</v>
       </c>
       <c r="O41">
-        <v>25369</v>
+        <v>20649</v>
       </c>
       <c r="P41">
-        <v>9280</v>
+        <v>8903</v>
       </c>
       <c r="Q41">
-        <v>-240</v>
+        <v>-184</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>19426</v>
+        <v>15387</v>
       </c>
       <c r="U41">
-        <v>948</v>
+        <v>862</v>
       </c>
       <c r="V41">
-        <v>-1080</v>
+        <v>-871</v>
       </c>
       <c r="W41">
-        <v>-202</v>
+        <v>-96</v>
       </c>
       <c r="X41">
-        <v>-1715</v>
+        <v>1189</v>
       </c>
       <c r="Y41">
-        <v>862</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>2</v>
+        <v>-214</v>
       </c>
       <c r="AA41">
-        <v>225</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
+        <v>40543</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42">
+        <v>732</v>
+      </c>
+      <c r="D42">
+        <v>20930</v>
+      </c>
+      <c r="E42">
+        <v>10625</v>
+      </c>
+      <c r="F42">
+        <v>1234</v>
+      </c>
+      <c r="G42">
+        <v>28357</v>
+      </c>
+      <c r="H42">
+        <v>42610</v>
+      </c>
+      <c r="I42">
+        <v>8141</v>
+      </c>
+      <c r="J42">
+        <v>6848</v>
+      </c>
+      <c r="K42">
+        <v>5632</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>18063</v>
+      </c>
+      <c r="O42">
+        <v>26706</v>
+      </c>
+      <c r="P42">
+        <v>12685</v>
+      </c>
+      <c r="Q42">
+        <v>-336</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>15904</v>
+      </c>
+      <c r="U42">
+        <v>526</v>
+      </c>
+      <c r="V42">
+        <v>-3212</v>
+      </c>
+      <c r="W42">
+        <v>-96</v>
+      </c>
+      <c r="X42">
+        <v>3515</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-144</v>
+      </c>
+      <c r="AA42">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>578</v>
+      </c>
+      <c r="D43">
+        <v>20077</v>
+      </c>
+      <c r="E43">
+        <v>10428</v>
+      </c>
+      <c r="F43">
+        <v>1160</v>
+      </c>
+      <c r="G43">
+        <v>29252</v>
+      </c>
+      <c r="H43">
+        <v>43763</v>
+      </c>
+      <c r="I43">
+        <v>7703</v>
+      </c>
+      <c r="J43">
+        <v>8350</v>
+      </c>
+      <c r="K43">
+        <v>5732</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>16863</v>
+      </c>
+      <c r="O43">
+        <v>27083</v>
+      </c>
+      <c r="P43">
+        <v>14258</v>
+      </c>
+      <c r="Q43">
+        <v>332</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>16680</v>
+      </c>
+      <c r="U43">
+        <v>858</v>
+      </c>
+      <c r="V43">
+        <v>-666</v>
+      </c>
+      <c r="W43">
+        <v>-101</v>
+      </c>
+      <c r="X43">
+        <v>1444</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-146</v>
+      </c>
+      <c r="AA43">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>381</v>
+      </c>
+      <c r="D44">
+        <v>22870</v>
+      </c>
+      <c r="E44">
+        <v>4808</v>
+      </c>
+      <c r="F44">
+        <v>1098</v>
+      </c>
+      <c r="G44">
+        <v>27504</v>
+      </c>
+      <c r="H44">
+        <v>42352</v>
+      </c>
+      <c r="I44">
+        <v>2581</v>
+      </c>
+      <c r="J44">
+        <v>8266</v>
+      </c>
+      <c r="K44">
+        <v>1875</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>13218</v>
+      </c>
+      <c r="O44">
+        <v>23514</v>
+      </c>
+      <c r="P44">
+        <v>10319</v>
+      </c>
+      <c r="Q44">
+        <v>-243</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>30700</v>
+      </c>
+      <c r="T44">
+        <v>18838</v>
+      </c>
+      <c r="U44">
+        <v>615</v>
+      </c>
+      <c r="V44">
+        <v>2409</v>
+      </c>
+      <c r="W44">
+        <v>-102</v>
+      </c>
+      <c r="X44">
+        <v>-2564</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>188</v>
+      </c>
+      <c r="AA44">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>460</v>
+      </c>
+      <c r="D45">
+        <v>21902</v>
+      </c>
+      <c r="E45">
+        <v>10336</v>
+      </c>
+      <c r="F45">
+        <v>1034</v>
+      </c>
+      <c r="G45">
+        <v>27279</v>
+      </c>
+      <c r="H45">
+        <v>41448</v>
+      </c>
+      <c r="I45">
+        <v>7371</v>
+      </c>
+      <c r="J45">
+        <v>6678</v>
+      </c>
+      <c r="K45">
+        <v>1170</v>
+      </c>
+      <c r="L45">
+        <v>-663</v>
+      </c>
+      <c r="M45">
+        <v>-85</v>
+      </c>
+      <c r="N45">
+        <v>14479</v>
+      </c>
+      <c r="O45">
+        <v>23039</v>
+      </c>
+      <c r="P45">
+        <v>9497</v>
+      </c>
+      <c r="Q45">
+        <v>705</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>18409</v>
+      </c>
+      <c r="U45">
+        <v>1320</v>
+      </c>
+      <c r="V45">
+        <v>2087</v>
+      </c>
+      <c r="W45">
+        <v>-107</v>
+      </c>
+      <c r="X45">
+        <v>-1133</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>300</v>
+      </c>
+      <c r="AA45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>23306</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>813</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47">
+        <v>399</v>
+      </c>
+      <c r="D47">
+        <v>21155</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1008</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-51</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>-46</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>-783</v>
+      </c>
+      <c r="W47">
+        <v>-115</v>
+      </c>
+      <c r="X47">
+        <v>900</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>201</v>
+      </c>
+      <c r="AA47">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48">
+        <v>284</v>
+      </c>
+      <c r="D48">
+        <v>22675</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>813</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>473</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>637</v>
+      </c>
+      <c r="W48">
+        <v>-116</v>
+      </c>
+      <c r="X48">
+        <v>-139</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>257</v>
+      </c>
+      <c r="AA48">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49">
+        <v>182</v>
+      </c>
+      <c r="D49">
+        <v>21808</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>806</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>-56</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>483</v>
+      </c>
+      <c r="W49">
+        <v>-115</v>
+      </c>
+      <c r="X49">
+        <v>23</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-302</v>
+      </c>
+      <c r="AA49">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50">
+        <v>510</v>
+      </c>
+      <c r="D50">
+        <v>24921</v>
+      </c>
+      <c r="E50">
+        <v>5443</v>
+      </c>
+      <c r="F50">
+        <v>996</v>
+      </c>
+      <c r="G50">
+        <v>29762</v>
+      </c>
+      <c r="H50">
+        <v>45136</v>
+      </c>
+      <c r="I50">
+        <v>4787</v>
+      </c>
+      <c r="J50">
+        <v>6456</v>
+      </c>
+      <c r="K50">
+        <v>2816</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>16993</v>
+      </c>
+      <c r="O50">
+        <v>26005</v>
+      </c>
+      <c r="P50">
+        <v>9540</v>
+      </c>
+      <c r="Q50">
+        <v>479</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>30600</v>
+      </c>
+      <c r="T50">
+        <v>19131</v>
+      </c>
+      <c r="U50">
+        <v>1714</v>
+      </c>
+      <c r="V50">
+        <v>1995</v>
+      </c>
+      <c r="W50">
+        <v>-115</v>
+      </c>
+      <c r="X50">
+        <v>-1105</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-596</v>
+      </c>
+      <c r="AA50">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51">
+        <v>269</v>
+      </c>
+      <c r="D51">
+        <v>21727</v>
+      </c>
+      <c r="E51">
+        <v>4150</v>
+      </c>
+      <c r="F51">
+        <v>756</v>
+      </c>
+      <c r="G51">
+        <v>27865</v>
+      </c>
+      <c r="H51">
+        <v>43226</v>
+      </c>
+      <c r="I51">
+        <v>3474</v>
+      </c>
+      <c r="J51">
+        <v>5374</v>
+      </c>
+      <c r="K51">
+        <v>2358</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-691</v>
+      </c>
+      <c r="N51">
+        <v>16142</v>
+      </c>
+      <c r="O51">
+        <v>24250</v>
+      </c>
+      <c r="P51">
+        <v>8863</v>
+      </c>
+      <c r="Q51">
+        <v>-266</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>18976</v>
+      </c>
+      <c r="U51">
+        <v>1448</v>
+      </c>
+      <c r="V51">
+        <v>357</v>
+      </c>
+      <c r="W51">
+        <v>-125</v>
+      </c>
+      <c r="X51">
+        <v>-792</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>422</v>
+      </c>
+      <c r="AA51">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52">
+        <v>223</v>
+      </c>
+      <c r="D52">
+        <v>22541</v>
+      </c>
+      <c r="E52">
+        <v>4066</v>
+      </c>
+      <c r="F52">
+        <v>807</v>
+      </c>
+      <c r="G52">
+        <v>25036</v>
+      </c>
+      <c r="H52">
+        <v>40238</v>
+      </c>
+      <c r="I52">
+        <v>2971</v>
+      </c>
+      <c r="J52">
+        <v>5366</v>
+      </c>
+      <c r="K52">
+        <v>1016</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>13123</v>
+      </c>
+      <c r="O52">
+        <v>21225</v>
+      </c>
+      <c r="P52">
+        <v>7524</v>
+      </c>
+      <c r="Q52">
+        <v>400</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>19013</v>
+      </c>
+      <c r="U52">
+        <v>1848</v>
+      </c>
+      <c r="V52">
+        <v>1991</v>
+      </c>
+      <c r="W52">
+        <v>-125</v>
+      </c>
+      <c r="X52">
+        <v>-1480</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>38</v>
+      </c>
+      <c r="AA52">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53">
+        <v>476</v>
+      </c>
+      <c r="D53">
+        <v>21393</v>
+      </c>
+      <c r="E53">
+        <v>3934</v>
+      </c>
+      <c r="F53">
+        <v>1156</v>
+      </c>
+      <c r="G53">
+        <v>26090</v>
+      </c>
+      <c r="H53">
+        <v>41448</v>
+      </c>
+      <c r="I53">
+        <v>2942</v>
+      </c>
+      <c r="J53">
+        <v>5364</v>
+      </c>
+      <c r="K53">
+        <v>364</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>13753</v>
+      </c>
+      <c r="O53">
+        <v>21882</v>
+      </c>
+      <c r="P53">
+        <v>6884</v>
+      </c>
+      <c r="Q53">
+        <v>1404</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>19566</v>
+      </c>
+      <c r="U53">
+        <v>3252</v>
+      </c>
+      <c r="V53">
+        <v>2521</v>
+      </c>
+      <c r="W53">
+        <v>-126</v>
+      </c>
+      <c r="X53">
+        <v>-885</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-14</v>
+      </c>
+      <c r="AA53">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54">
+        <v>374</v>
+      </c>
+      <c r="D54">
+        <v>24143</v>
+      </c>
+      <c r="E54">
+        <v>5279</v>
+      </c>
+      <c r="F54">
+        <v>1170</v>
+      </c>
+      <c r="G54">
+        <v>28530</v>
+      </c>
+      <c r="H54">
+        <v>43752</v>
+      </c>
+      <c r="I54">
+        <v>4513</v>
+      </c>
+      <c r="J54">
+        <v>5347</v>
+      </c>
+      <c r="K54">
+        <v>358</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>15658</v>
+      </c>
+      <c r="O54">
+        <v>23558</v>
+      </c>
+      <c r="P54">
+        <v>6879</v>
+      </c>
+      <c r="Q54">
+        <v>-131</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>31100</v>
+      </c>
+      <c r="T54">
+        <v>20194</v>
+      </c>
+      <c r="U54">
+        <v>3121</v>
+      </c>
+      <c r="V54">
+        <v>357</v>
+      </c>
+      <c r="W54">
+        <v>-125</v>
+      </c>
+      <c r="X54">
+        <v>-85</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-342</v>
+      </c>
+      <c r="AA54">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55">
+        <v>267</v>
+      </c>
+      <c r="D55">
+        <v>20696</v>
+      </c>
+      <c r="E55">
+        <v>4719</v>
+      </c>
+      <c r="F55">
+        <v>675</v>
+      </c>
+      <c r="G55">
+        <v>26226</v>
+      </c>
+      <c r="H55">
+        <v>41444</v>
+      </c>
+      <c r="I55">
+        <v>3653</v>
+      </c>
+      <c r="J55">
+        <v>5353</v>
+      </c>
+      <c r="K55">
+        <v>300</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-1217</v>
+      </c>
+      <c r="N55">
+        <v>13456</v>
+      </c>
+      <c r="O55">
+        <v>21382</v>
+      </c>
+      <c r="P55">
+        <v>5678</v>
+      </c>
+      <c r="Q55">
+        <v>-2038</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>20062</v>
+      </c>
+      <c r="U55">
+        <v>1083</v>
+      </c>
+      <c r="V55">
+        <v>-358</v>
+      </c>
+      <c r="W55">
+        <v>-158</v>
+      </c>
+      <c r="X55">
+        <v>-1535</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>37</v>
+      </c>
+      <c r="AA55">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56">
+        <v>533</v>
+      </c>
+      <c r="D56">
+        <v>21494</v>
+      </c>
+      <c r="E56">
+        <v>5833</v>
+      </c>
+      <c r="F56">
+        <v>1172</v>
+      </c>
+      <c r="G56">
+        <v>24658</v>
+      </c>
+      <c r="H56">
+        <v>39930</v>
+      </c>
+      <c r="I56">
+        <v>2904</v>
+      </c>
+      <c r="J56">
+        <v>5369</v>
+      </c>
+      <c r="K56">
+        <v>233</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>11891</v>
+      </c>
+      <c r="O56">
+        <v>19711</v>
+      </c>
+      <c r="P56">
+        <v>5622</v>
+      </c>
+      <c r="Q56">
+        <v>547</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>20219</v>
+      </c>
+      <c r="U56">
+        <v>1630</v>
+      </c>
+      <c r="V56">
+        <v>1341</v>
+      </c>
+      <c r="W56">
+        <v>-157</v>
+      </c>
+      <c r="X56">
+        <v>-682</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>94</v>
+      </c>
+      <c r="AA56">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57">
+        <v>747</v>
+      </c>
+      <c r="D57">
+        <v>18117</v>
+      </c>
+      <c r="E57">
+        <v>4305</v>
+      </c>
+      <c r="F57">
+        <v>1470</v>
+      </c>
+      <c r="G57">
+        <v>26639</v>
+      </c>
+      <c r="H57">
+        <v>41821</v>
+      </c>
+      <c r="I57">
+        <v>3134</v>
+      </c>
+      <c r="J57">
+        <v>5346</v>
+      </c>
+      <c r="K57">
+        <v>177</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>13751</v>
+      </c>
+      <c r="O57">
+        <v>21560</v>
+      </c>
+      <c r="P57">
+        <v>5545</v>
+      </c>
+      <c r="Q57">
+        <v>2909</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>20261</v>
+      </c>
+      <c r="U57">
+        <v>4539</v>
+      </c>
+      <c r="V57">
+        <v>3441</v>
+      </c>
+      <c r="W57">
+        <v>-155</v>
+      </c>
+      <c r="X57">
+        <v>-369</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-10</v>
+      </c>
+      <c r="AA57">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58">
+        <v>701</v>
+      </c>
+      <c r="D58">
+        <v>20894</v>
+      </c>
+      <c r="E58">
+        <v>4747</v>
+      </c>
+      <c r="F58">
+        <v>1451</v>
+      </c>
+      <c r="G58">
+        <v>26028</v>
+      </c>
+      <c r="H58">
+        <v>43997</v>
+      </c>
+      <c r="I58">
+        <v>4326</v>
+      </c>
+      <c r="J58">
+        <v>5528</v>
+      </c>
+      <c r="K58">
+        <v>108</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>15602</v>
+      </c>
+      <c r="O58">
+        <v>24367</v>
+      </c>
+      <c r="P58">
+        <v>5660</v>
+      </c>
+      <c r="Q58">
+        <v>-3440</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>33900</v>
+      </c>
+      <c r="T58">
+        <v>19630</v>
+      </c>
+      <c r="U58">
+        <v>1099</v>
+      </c>
+      <c r="V58">
+        <v>538</v>
+      </c>
+      <c r="W58">
+        <v>-154</v>
+      </c>
+      <c r="X58">
+        <v>-991</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-226</v>
+      </c>
+      <c r="AA58">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59">
+        <v>493</v>
+      </c>
+      <c r="D59">
+        <v>17506</v>
+      </c>
+      <c r="E59">
+        <v>4280</v>
+      </c>
+      <c r="F59">
+        <v>1102</v>
+      </c>
+      <c r="G59">
+        <v>23896</v>
+      </c>
+      <c r="H59">
+        <v>41715</v>
+      </c>
+      <c r="I59">
+        <v>3142</v>
+      </c>
+      <c r="J59">
+        <v>5575</v>
+      </c>
+      <c r="K59">
+        <v>848</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-7</v>
+      </c>
+      <c r="N59">
+        <v>14235</v>
+      </c>
+      <c r="O59">
+        <v>22958</v>
+      </c>
+      <c r="P59">
+        <v>6441</v>
+      </c>
+      <c r="Q59">
+        <v>-209</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>18757</v>
+      </c>
+      <c r="U59">
+        <v>890</v>
+      </c>
+      <c r="V59">
+        <v>45</v>
+      </c>
+      <c r="W59">
+        <v>-177</v>
+      </c>
+      <c r="X59">
+        <v>7</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>101</v>
+      </c>
+      <c r="AA59">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60">
+        <v>386</v>
+      </c>
+      <c r="D60">
+        <v>17186</v>
+      </c>
+      <c r="E60">
+        <v>4033</v>
+      </c>
+      <c r="F60">
+        <v>964</v>
+      </c>
+      <c r="G60">
+        <v>22588</v>
+      </c>
+      <c r="H60">
+        <v>40568</v>
+      </c>
+      <c r="I60">
+        <v>3017</v>
+      </c>
+      <c r="J60">
+        <v>5965</v>
+      </c>
+      <c r="K60">
+        <v>157</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>12859</v>
+      </c>
+      <c r="O60">
+        <v>22010</v>
+      </c>
+      <c r="P60">
+        <v>6923</v>
+      </c>
+      <c r="Q60">
+        <v>-23</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>18558</v>
+      </c>
+      <c r="U60">
+        <v>867</v>
+      </c>
+      <c r="V60">
+        <v>362</v>
+      </c>
+      <c r="W60">
+        <v>-173</v>
+      </c>
+      <c r="X60">
+        <v>-239</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>90</v>
+      </c>
+      <c r="AA60">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61">
+        <v>252</v>
+      </c>
+      <c r="D61">
+        <v>16565</v>
+      </c>
+      <c r="E61">
+        <v>4335</v>
+      </c>
+      <c r="F61">
+        <v>1089</v>
+      </c>
+      <c r="G61">
+        <v>23045</v>
+      </c>
+      <c r="H61">
+        <v>40877</v>
+      </c>
+      <c r="I61">
+        <v>3072</v>
+      </c>
+      <c r="J61">
+        <v>5829</v>
+      </c>
+      <c r="K61">
+        <v>939</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>14130</v>
+      </c>
+      <c r="O61">
+        <v>22999</v>
+      </c>
+      <c r="P61">
+        <v>6782</v>
+      </c>
+      <c r="Q61">
+        <v>-147</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>17878</v>
+      </c>
+      <c r="U61">
+        <v>720</v>
+      </c>
+      <c r="V61">
+        <v>691</v>
+      </c>
+      <c r="W61">
+        <v>-170</v>
+      </c>
+      <c r="X61">
+        <v>-938</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-67</v>
+      </c>
+      <c r="AA61">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62">
+        <v>718</v>
+      </c>
+      <c r="D62">
+        <v>16445</v>
+      </c>
+      <c r="E62">
+        <v>3399</v>
+      </c>
+      <c r="F62">
+        <v>865</v>
+      </c>
+      <c r="G62">
+        <v>21829</v>
+      </c>
+      <c r="H62">
+        <v>40157</v>
+      </c>
+      <c r="I62">
+        <v>3474</v>
+      </c>
+      <c r="J62">
+        <v>5779</v>
+      </c>
+      <c r="K62">
+        <v>86</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>13505</v>
+      </c>
+      <c r="O62">
+        <v>22242</v>
+      </c>
+      <c r="P62">
+        <v>5877</v>
+      </c>
+      <c r="Q62">
+        <v>179</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>32300</v>
+      </c>
+      <c r="T62">
+        <v>17915</v>
+      </c>
+      <c r="U62">
+        <v>910</v>
+      </c>
+      <c r="V62">
+        <v>1372</v>
+      </c>
+      <c r="W62">
+        <v>-167</v>
+      </c>
+      <c r="X62">
+        <v>-1479</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-315</v>
+      </c>
+      <c r="AA62">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63">
+        <v>230</v>
+      </c>
+      <c r="D63">
+        <v>14384</v>
+      </c>
+      <c r="E63">
+        <v>2831</v>
+      </c>
+      <c r="F63">
+        <v>781</v>
+      </c>
+      <c r="G63">
+        <v>20970</v>
+      </c>
+      <c r="H63">
+        <v>39681</v>
+      </c>
+      <c r="I63">
+        <v>2969</v>
+      </c>
+      <c r="J63">
+        <v>5851</v>
+      </c>
+      <c r="K63">
+        <v>783</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-4</v>
+      </c>
+      <c r="N63">
+        <v>12867</v>
+      </c>
+      <c r="O63">
+        <v>21768</v>
+      </c>
+      <c r="P63">
+        <v>6646</v>
+      </c>
+      <c r="Q63">
+        <v>-202</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>17913</v>
+      </c>
+      <c r="U63">
+        <v>706</v>
+      </c>
+      <c r="V63">
+        <v>25</v>
+      </c>
+      <c r="W63">
+        <v>-177</v>
+      </c>
+      <c r="X63">
+        <v>221</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-199</v>
+      </c>
+      <c r="AA63">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64">
+        <v>284</v>
+      </c>
+      <c r="D64">
+        <v>15629</v>
+      </c>
+      <c r="E64">
+        <v>3242</v>
+      </c>
+      <c r="F64">
+        <v>737</v>
+      </c>
+      <c r="G64">
+        <v>20867</v>
+      </c>
+      <c r="H64">
+        <v>40098</v>
+      </c>
+      <c r="I64">
+        <v>2770</v>
+      </c>
+      <c r="J64">
+        <v>5561</v>
+      </c>
+      <c r="K64">
+        <v>1554</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>13778</v>
+      </c>
+      <c r="O64">
+        <v>22388</v>
+      </c>
+      <c r="P64">
+        <v>7386</v>
+      </c>
+      <c r="Q64">
+        <v>-377</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>17710</v>
+      </c>
+      <c r="U64">
+        <v>334</v>
+      </c>
+      <c r="V64">
+        <v>-394</v>
+      </c>
+      <c r="W64">
+        <v>-176</v>
+      </c>
+      <c r="X64">
+        <v>382</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>262</v>
+      </c>
+      <c r="AA64">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65">
+        <v>341</v>
+      </c>
+      <c r="D65">
+        <v>15832</v>
+      </c>
+      <c r="E65">
+        <v>3418</v>
+      </c>
+      <c r="F65">
+        <v>1090</v>
+      </c>
+      <c r="G65">
+        <v>20543</v>
+      </c>
+      <c r="H65">
+        <v>39853</v>
+      </c>
+      <c r="I65">
+        <v>2927</v>
+      </c>
+      <c r="J65">
+        <v>6594</v>
+      </c>
+      <c r="K65">
+        <v>207</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>12737</v>
+      </c>
+      <c r="O65">
+        <v>22257</v>
+      </c>
+      <c r="P65">
+        <v>7073</v>
+      </c>
+      <c r="Q65">
+        <v>510</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>17596</v>
+      </c>
+      <c r="U65">
+        <v>701</v>
+      </c>
+      <c r="V65">
+        <v>1665</v>
+      </c>
+      <c r="W65">
+        <v>-175</v>
+      </c>
+      <c r="X65">
+        <v>-737</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-656</v>
+      </c>
+      <c r="AA65">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66">
+        <v>424</v>
+      </c>
+      <c r="D66">
+        <v>16501</v>
+      </c>
+      <c r="E66">
+        <v>2966</v>
+      </c>
+      <c r="F66">
+        <v>1011</v>
+      </c>
+      <c r="G66">
+        <v>21045</v>
+      </c>
+      <c r="H66">
+        <v>39769</v>
+      </c>
+      <c r="I66">
+        <v>3606</v>
+      </c>
+      <c r="J66">
+        <v>6504</v>
+      </c>
+      <c r="K66">
+        <v>154</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>13173</v>
+      </c>
+      <c r="O66">
+        <v>22564</v>
+      </c>
+      <c r="P66">
+        <v>6931</v>
+      </c>
+      <c r="Q66">
+        <v>-166</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>31800</v>
+      </c>
+      <c r="T66">
+        <v>17205</v>
+      </c>
+      <c r="U66">
+        <v>619</v>
+      </c>
+      <c r="V66">
+        <v>259</v>
+      </c>
+      <c r="W66">
+        <v>-173</v>
+      </c>
+      <c r="X66">
+        <v>-445</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>189</v>
+      </c>
+      <c r="AA66">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67">
+        <v>339</v>
+      </c>
+      <c r="D67">
+        <v>14988</v>
+      </c>
+      <c r="E67">
+        <v>2529</v>
+      </c>
+      <c r="F67">
+        <v>872</v>
+      </c>
+      <c r="G67">
+        <v>20486</v>
+      </c>
+      <c r="H67">
+        <v>39630</v>
+      </c>
+      <c r="I67">
+        <v>3415</v>
+      </c>
+      <c r="J67">
+        <v>5956</v>
+      </c>
+      <c r="K67">
+        <v>420</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-2</v>
+      </c>
+      <c r="N67">
+        <v>13602</v>
+      </c>
+      <c r="O67">
+        <v>22475</v>
+      </c>
+      <c r="P67">
+        <v>7207</v>
+      </c>
+      <c r="Q67">
+        <v>379</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>17155</v>
+      </c>
+      <c r="U67">
+        <v>476</v>
+      </c>
+      <c r="V67">
+        <v>-1489</v>
+      </c>
+      <c r="W67">
+        <v>-183</v>
+      </c>
+      <c r="X67">
+        <v>-180</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-113</v>
+      </c>
+      <c r="AA67">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68">
+        <v>276</v>
+      </c>
+      <c r="D68">
+        <v>14943</v>
+      </c>
+      <c r="E68">
+        <v>2500</v>
+      </c>
+      <c r="F68">
+        <v>892</v>
+      </c>
+      <c r="G68">
+        <v>18201</v>
+      </c>
+      <c r="H68">
+        <v>37817</v>
+      </c>
+      <c r="I68">
+        <v>2926</v>
+      </c>
+      <c r="J68">
+        <v>6056</v>
+      </c>
+      <c r="K68">
+        <v>353</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>11421</v>
+      </c>
+      <c r="O68">
+        <v>20372</v>
+      </c>
+      <c r="P68">
+        <v>6980</v>
+      </c>
+      <c r="Q68">
+        <v>-50</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>17445</v>
+      </c>
+      <c r="U68">
+        <v>433</v>
+      </c>
+      <c r="V68">
+        <v>-591</v>
+      </c>
+      <c r="W68">
+        <v>-181</v>
+      </c>
+      <c r="X68">
+        <v>-759</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>33</v>
+      </c>
+      <c r="AA68">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69">
+        <v>192</v>
+      </c>
+      <c r="D69">
+        <v>14827</v>
+      </c>
+      <c r="E69">
+        <v>2784</v>
+      </c>
+      <c r="F69">
+        <v>812</v>
+      </c>
+      <c r="G69">
+        <v>19140</v>
+      </c>
+      <c r="H69">
+        <v>38969</v>
+      </c>
+      <c r="I69">
+        <v>3449</v>
+      </c>
+      <c r="J69">
+        <v>6595</v>
+      </c>
+      <c r="K69">
+        <v>728</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>11873</v>
+      </c>
+      <c r="O69">
+        <v>21339</v>
+      </c>
+      <c r="P69">
+        <v>7336</v>
+      </c>
+      <c r="Q69">
+        <v>-96</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>17630</v>
+      </c>
+      <c r="U69">
+        <v>518</v>
+      </c>
+      <c r="V69">
+        <v>-1169</v>
+      </c>
+      <c r="W69">
+        <v>-180</v>
+      </c>
+      <c r="X69">
+        <v>-50</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-128</v>
+      </c>
+      <c r="AA69">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70">
+        <v>788</v>
+      </c>
+      <c r="D70">
+        <v>16070</v>
+      </c>
+      <c r="E70">
+        <v>2731</v>
+      </c>
+      <c r="F70">
+        <v>942</v>
+      </c>
+      <c r="G70">
+        <v>19925</v>
+      </c>
+      <c r="H70">
+        <v>39963</v>
+      </c>
+      <c r="I70">
+        <v>3894</v>
+      </c>
+      <c r="J70">
+        <v>6623</v>
+      </c>
+      <c r="K70">
+        <v>857</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>12570</v>
+      </c>
+      <c r="O70">
+        <v>21588</v>
+      </c>
+      <c r="P70">
+        <v>7493</v>
+      </c>
+      <c r="Q70">
+        <v>64</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>31300</v>
+      </c>
+      <c r="T70">
+        <v>18375</v>
+      </c>
+      <c r="U70">
+        <v>804</v>
+      </c>
+      <c r="V70">
+        <v>-2717</v>
+      </c>
+      <c r="W70">
+        <v>-186</v>
+      </c>
+      <c r="X70">
+        <v>-39</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>375</v>
+      </c>
+      <c r="AA70">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71">
+        <v>393</v>
+      </c>
+      <c r="D71">
+        <v>15526</v>
+      </c>
+      <c r="E71">
+        <v>3042</v>
+      </c>
+      <c r="F71">
+        <v>889</v>
+      </c>
+      <c r="G71">
+        <v>20906</v>
+      </c>
+      <c r="H71">
+        <v>41100</v>
+      </c>
+      <c r="I71">
+        <v>3340</v>
+      </c>
+      <c r="J71">
+        <v>6657</v>
+      </c>
+      <c r="K71">
+        <v>2330</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-1</v>
+      </c>
+      <c r="N71">
+        <v>13285</v>
+      </c>
+      <c r="O71">
+        <v>22304</v>
+      </c>
+      <c r="P71">
+        <v>9000</v>
+      </c>
+      <c r="Q71">
+        <v>-117</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>18796</v>
+      </c>
+      <c r="U71">
+        <v>797</v>
+      </c>
+      <c r="V71">
+        <v>-3574</v>
+      </c>
+      <c r="W71">
+        <v>-190</v>
+      </c>
+      <c r="X71">
+        <v>1277</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72">
+        <v>566</v>
+      </c>
+      <c r="D72">
+        <v>17068</v>
+      </c>
+      <c r="E72">
+        <v>2645</v>
+      </c>
+      <c r="F72">
+        <v>1181</v>
+      </c>
+      <c r="G72">
+        <v>18647</v>
+      </c>
+      <c r="H72">
+        <v>38755</v>
+      </c>
+      <c r="I72">
+        <v>2609</v>
+      </c>
+      <c r="J72">
+        <v>5981</v>
+      </c>
+      <c r="K72">
+        <v>1047</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>11718</v>
+      </c>
+      <c r="O72">
+        <v>19990</v>
+      </c>
+      <c r="P72">
+        <v>7623</v>
+      </c>
+      <c r="Q72">
+        <v>310</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>18765</v>
+      </c>
+      <c r="U72">
+        <v>851</v>
+      </c>
+      <c r="V72">
+        <v>395</v>
+      </c>
+      <c r="W72">
+        <v>-189</v>
+      </c>
+      <c r="X72">
+        <v>-1453</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-134</v>
+      </c>
+      <c r="AA72">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73">
+        <v>536</v>
+      </c>
+      <c r="D73">
+        <v>15800</v>
+      </c>
+      <c r="E73">
+        <v>2864</v>
+      </c>
+      <c r="F73">
+        <v>1058</v>
+      </c>
+      <c r="G73">
+        <v>19465</v>
+      </c>
+      <c r="H73">
+        <v>39664</v>
+      </c>
+      <c r="I73">
+        <v>3082</v>
+      </c>
+      <c r="J73">
+        <v>6730</v>
+      </c>
+      <c r="K73">
+        <v>532</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>11648</v>
+      </c>
+      <c r="O73">
+        <v>20618</v>
+      </c>
+      <c r="P73">
+        <v>7852</v>
+      </c>
+      <c r="Q73">
+        <v>598</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>19046</v>
+      </c>
+      <c r="U73">
+        <v>915</v>
+      </c>
+      <c r="V73">
+        <v>-501</v>
+      </c>
+      <c r="W73">
+        <v>-189</v>
+      </c>
+      <c r="X73">
+        <v>72</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>7</v>
+      </c>
+      <c r="AA73">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74">
+        <v>315</v>
+      </c>
+      <c r="D74">
+        <v>15947</v>
+      </c>
+      <c r="E74">
+        <v>3062</v>
+      </c>
+      <c r="F74">
+        <v>1053</v>
+      </c>
+      <c r="G74">
+        <v>20588</v>
+      </c>
+      <c r="H74">
+        <v>40833</v>
+      </c>
+      <c r="I74">
+        <v>3545</v>
+      </c>
+      <c r="J74">
+        <v>7698</v>
+      </c>
+      <c r="K74">
+        <v>108</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>11776</v>
+      </c>
+      <c r="O74">
+        <v>21788</v>
+      </c>
+      <c r="P74">
+        <v>8408</v>
+      </c>
+      <c r="Q74">
+        <v>1194</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>31600</v>
+      </c>
+      <c r="T74">
+        <v>19045</v>
+      </c>
+      <c r="U74">
+        <v>1997</v>
+      </c>
+      <c r="V74">
+        <v>-1104</v>
+      </c>
+      <c r="W74">
+        <v>-190</v>
+      </c>
+      <c r="X74">
+        <v>291</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-17</v>
+      </c>
+      <c r="AA74">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75">
+        <v>233</v>
+      </c>
+      <c r="D75">
+        <v>15304</v>
+      </c>
+      <c r="E75">
+        <v>3631</v>
+      </c>
+      <c r="F75">
+        <v>928</v>
+      </c>
+      <c r="G75">
+        <v>20262</v>
+      </c>
+      <c r="H75">
+        <v>43151</v>
+      </c>
+      <c r="I75">
+        <v>3538</v>
+      </c>
+      <c r="J75">
+        <v>7675</v>
+      </c>
+      <c r="K75">
+        <v>1595</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-4</v>
+      </c>
+      <c r="N75">
+        <v>13361</v>
+      </c>
+      <c r="O75">
+        <v>24192</v>
+      </c>
+      <c r="P75">
+        <v>10701</v>
+      </c>
+      <c r="Q75">
+        <v>-1241</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>18959</v>
+      </c>
+      <c r="U75">
+        <v>926</v>
+      </c>
+      <c r="V75">
+        <v>-2035</v>
+      </c>
+      <c r="W75">
+        <v>-198</v>
+      </c>
+      <c r="X75">
+        <v>1065</v>
+      </c>
+      <c r="Y75">
+        <v>622</v>
+      </c>
+      <c r="Z75">
+        <v>41</v>
+      </c>
+      <c r="AA75">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76">
+        <v>235</v>
+      </c>
+      <c r="D76">
+        <v>16297</v>
+      </c>
+      <c r="E76">
+        <v>3473</v>
+      </c>
+      <c r="F76">
+        <v>972</v>
+      </c>
+      <c r="G76">
+        <v>19548</v>
+      </c>
+      <c r="H76">
+        <v>42616</v>
+      </c>
+      <c r="I76">
+        <v>3067</v>
+      </c>
+      <c r="J76">
+        <v>7701</v>
+      </c>
+      <c r="K76">
+        <v>1699</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>12602</v>
+      </c>
+      <c r="O76">
+        <v>23584</v>
+      </c>
+      <c r="P76">
+        <v>10315</v>
+      </c>
+      <c r="Q76">
+        <v>147</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>19032</v>
+      </c>
+      <c r="U76">
+        <v>849</v>
+      </c>
+      <c r="V76">
+        <v>-678</v>
+      </c>
+      <c r="W76">
+        <v>-197</v>
+      </c>
+      <c r="X76">
+        <v>-792</v>
+      </c>
+      <c r="Y76">
+        <v>668</v>
+      </c>
+      <c r="Z76">
+        <v>14</v>
+      </c>
+      <c r="AA76">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77">
+        <v>407</v>
+      </c>
+      <c r="D77">
+        <v>16726</v>
+      </c>
+      <c r="E77">
+        <v>3314</v>
+      </c>
+      <c r="F77">
+        <v>1078</v>
+      </c>
+      <c r="G77">
+        <v>19178</v>
+      </c>
+      <c r="H77">
+        <v>41804</v>
+      </c>
+      <c r="I77">
+        <v>2973</v>
+      </c>
+      <c r="J77">
+        <v>7631</v>
+      </c>
+      <c r="K77">
+        <v>1242</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>12020</v>
+      </c>
+      <c r="O77">
+        <v>22856</v>
+      </c>
+      <c r="P77">
+        <v>9762</v>
+      </c>
+      <c r="Q77">
+        <v>276</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>18948</v>
+      </c>
+      <c r="U77">
+        <v>932</v>
+      </c>
+      <c r="V77">
+        <v>-926</v>
+      </c>
+      <c r="W77">
+        <v>-197</v>
+      </c>
+      <c r="X77">
+        <v>-703</v>
+      </c>
+      <c r="Y77">
+        <v>645</v>
+      </c>
+      <c r="Z77">
+        <v>-26</v>
+      </c>
+      <c r="AA77">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78">
+        <v>504</v>
+      </c>
+      <c r="D78">
+        <v>16329</v>
+      </c>
+      <c r="E78">
+        <v>3727</v>
+      </c>
+      <c r="F78">
+        <v>1169</v>
+      </c>
+      <c r="G78">
+        <v>21347</v>
+      </c>
+      <c r="H78">
+        <v>43997</v>
+      </c>
+      <c r="I78">
+        <v>3746</v>
+      </c>
+      <c r="J78">
+        <v>7672</v>
+      </c>
+      <c r="K78">
+        <v>1202</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>13734</v>
+      </c>
+      <c r="O78">
+        <v>24714</v>
+      </c>
+      <c r="P78">
+        <v>9920</v>
+      </c>
+      <c r="Q78">
+        <v>-35</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>38100</v>
+      </c>
+      <c r="T78">
+        <v>19283</v>
+      </c>
+      <c r="U78">
+        <v>852</v>
+      </c>
+      <c r="V78">
+        <v>-1813</v>
+      </c>
+      <c r="W78">
+        <v>-197</v>
+      </c>
+      <c r="X78">
+        <v>-230</v>
+      </c>
+      <c r="Y78">
+        <v>781</v>
+      </c>
+      <c r="Z78">
+        <v>35</v>
+      </c>
+      <c r="AA78">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79">
+        <v>391</v>
+      </c>
+      <c r="D79">
+        <v>14970</v>
+      </c>
+      <c r="E79">
+        <v>3930</v>
+      </c>
+      <c r="F79">
+        <v>951</v>
+      </c>
+      <c r="G79">
+        <v>26146</v>
+      </c>
+      <c r="H79">
+        <v>48395</v>
+      </c>
+      <c r="I79">
+        <v>3440</v>
+      </c>
+      <c r="J79">
+        <v>8613</v>
+      </c>
+      <c r="K79">
+        <v>3382</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-1</v>
+      </c>
+      <c r="N79">
+        <v>17317</v>
+      </c>
+      <c r="O79">
+        <v>29348</v>
+      </c>
+      <c r="P79">
+        <v>13490</v>
+      </c>
+      <c r="Q79">
+        <v>4540</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>19047</v>
+      </c>
+      <c r="U79">
+        <v>4734</v>
+      </c>
+      <c r="V79">
+        <v>-655</v>
+      </c>
+      <c r="W79">
+        <v>-203</v>
+      </c>
+      <c r="X79">
+        <v>3342</v>
+      </c>
+      <c r="Y79">
+        <v>769</v>
+      </c>
+      <c r="Z79">
+        <v>2</v>
+      </c>
+      <c r="AA79">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80">
+        <v>469</v>
+      </c>
+      <c r="D80">
+        <v>16281</v>
+      </c>
+      <c r="E80">
+        <v>4818</v>
+      </c>
+      <c r="F80">
+        <v>1108</v>
+      </c>
+      <c r="G80">
+        <v>22011</v>
+      </c>
+      <c r="H80">
+        <v>44341</v>
+      </c>
+      <c r="I80">
+        <v>2897</v>
+      </c>
+      <c r="J80">
+        <v>8632</v>
+      </c>
+      <c r="K80">
+        <v>531</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>12809</v>
+      </c>
+      <c r="O80">
+        <v>24945</v>
+      </c>
+      <c r="P80">
+        <v>10304</v>
+      </c>
+      <c r="Q80">
+        <v>-3031</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>19396</v>
+      </c>
+      <c r="U80">
+        <v>1203</v>
+      </c>
+      <c r="V80">
+        <v>219</v>
+      </c>
+      <c r="W80">
+        <v>-202</v>
+      </c>
+      <c r="X80">
+        <v>-3570</v>
+      </c>
+      <c r="Y80">
+        <v>846</v>
+      </c>
+      <c r="Z80">
+        <v>-10</v>
+      </c>
+      <c r="AA80">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81">
+        <v>225</v>
+      </c>
+      <c r="D81">
+        <v>15126</v>
+      </c>
+      <c r="E81">
+        <v>3776</v>
+      </c>
+      <c r="F81">
+        <v>1042</v>
+      </c>
+      <c r="G81">
+        <v>22766</v>
+      </c>
+      <c r="H81">
+        <v>44795</v>
+      </c>
+      <c r="I81">
+        <v>3347</v>
+      </c>
+      <c r="J81">
+        <v>7922</v>
+      </c>
+      <c r="K81">
+        <v>209</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>13907</v>
+      </c>
+      <c r="O81">
+        <v>25369</v>
+      </c>
+      <c r="P81">
+        <v>9280</v>
+      </c>
+      <c r="Q81">
+        <v>-240</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>19426</v>
+      </c>
+      <c r="U81">
+        <v>948</v>
+      </c>
+      <c r="V81">
+        <v>-1080</v>
+      </c>
+      <c r="W81">
+        <v>-202</v>
+      </c>
+      <c r="X81">
+        <v>-1715</v>
+      </c>
+      <c r="Y81">
+        <v>862</v>
+      </c>
+      <c r="Z81">
+        <v>2</v>
+      </c>
+      <c r="AA81">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
         <v>44196</v>
       </c>
-      <c r="B42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42">
+      <c r="B82" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82">
         <v>687</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>17978</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>3653</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1352</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>27286</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>49719</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>4474</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>7885</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>2042</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>18182</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>29623</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>11068</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>387</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>37575</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>20096</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>666</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>-870</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-202</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>1520</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>863</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>5</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>687</v>
       </c>
     </row>
